--- a/Simulate_data.xlsx
+++ b/Simulate_data.xlsx
@@ -13,6 +13,7 @@
     <sheet name="Charter" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Weights" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="HealthProfiles" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Availability" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -39688,4 +39689,125 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Simulate_data.xlsx
+++ b/Simulate_data.xlsx
@@ -469,7 +469,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>510</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -596,805 +596,1265 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SEP</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SEP</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SEP</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SEP</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>SEP</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>SEP</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>SEP</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SEP</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>SEP</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>SEP</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CPS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CPS</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CPS</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>CPS</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>CPS</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>CPS</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>CPS</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>CPS</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>CPS</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>CPS</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HPH</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>HPH</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>HPH</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>HPH</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>HPH</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>HPH</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>HPH</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>HPH</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>HPH</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>HPH</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ORNS</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ORNS</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ORNS</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ORNS</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>ORNS</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>ORNS</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>ORNS</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>ORNS</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ORNS</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>ORNS</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
-        <v>8</v>
-      </c>
-      <c r="C16" t="n">
-        <v>8</v>
-      </c>
-      <c r="D16" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8</v>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
-      </c>
-      <c r="G16" t="n">
-        <v>8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-      <c r="I16" t="n">
-        <v>8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>8</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ENS</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ENS</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ENS</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ENS</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ENS</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>ENS</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>ENS</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>ENS</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ENS</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>ENS</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
-        <v>7</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7</v>
-      </c>
-      <c r="D17" t="n">
-        <v>7</v>
-      </c>
-      <c r="E17" t="n">
-        <v>7</v>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
-      <c r="G17" t="n">
-        <v>7</v>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7</v>
-      </c>
-      <c r="J17" t="n">
-        <v>7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>7</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HNS</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>HNS</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>HNS</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HNS</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>HNS</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>HNS</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>HNS</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>HNS</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>HNS</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>HNS</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>OGNS</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>OGNS</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>OGNS</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>OGNS</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>OGNS</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>OGNS</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>OGNS</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>OGNS</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>OGNS</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>OGNS</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="n">
-        <v>2</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ORNA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ORNA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ORNA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ORNA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>ORNA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>ORNA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>ORNA</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>ORNA</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ORNA</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ORNA</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C23" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>HNSA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>HNSA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>HNSA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>HNSA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>HNSA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>HNSA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>HNSA</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>HNSA</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>HNSA</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>HNSA</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1966,13 +2426,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -2037,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -2049,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -2108,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2126,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -2259,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2274,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -2336,10 +2796,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -2410,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -2422,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -2475,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -2493,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -2561,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -2570,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -2626,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2635,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -2730,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -2807,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2884,10 +3344,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -2958,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -3026,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -3100,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -3174,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -3254,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3399,10 +3859,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3505,7 +3965,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -3727,7 +4187,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -3801,7 +4261,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -3875,7 +4335,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -4245,7 +4705,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -4319,7 +4779,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -4393,7 +4853,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -4541,7 +5001,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -4929,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -4985,7 +5445,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -5003,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -5059,7 +5519,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -5077,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -5133,7 +5593,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -5281,7 +5741,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -5429,7 +5889,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -5447,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -5503,7 +5963,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -5577,7 +6037,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -5595,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -5669,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -5725,7 +6185,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -5743,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -5799,7 +6259,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -5817,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -5873,7 +6333,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -6039,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -6243,7 +6703,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -6335,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -6483,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -6557,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -6613,7 +7073,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -6687,7 +7147,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -6705,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -6761,7 +7221,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -6779,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -6909,7 +7369,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -6927,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -7001,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -7057,7 +7517,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -7075,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -7131,7 +7591,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -7353,7 +7813,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -7445,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -7519,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -7667,7 +8127,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -7723,7 +8183,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -7797,7 +8257,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -7889,7 +8349,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -7945,7 +8405,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -7963,7 +8423,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -8019,7 +8479,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -8037,7 +8497,7 @@
         <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -8111,7 +8571,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -8259,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -8315,7 +8775,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -8333,7 +8793,7 @@
         <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -8389,7 +8849,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -8407,7 +8867,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -8463,7 +8923,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -8481,7 +8941,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -8629,7 +9089,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -8685,7 +9145,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -8833,7 +9293,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -8907,7 +9367,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -8925,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -8981,7 +9441,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -9073,7 +9533,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -9129,7 +9589,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -9147,7 +9607,7 @@
         <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -9221,7 +9681,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -9277,7 +9737,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -9351,7 +9811,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -9425,7 +9885,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -9573,7 +10033,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -9647,7 +10107,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -9795,7 +10255,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -9943,7 +10403,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -10017,7 +10477,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -10091,7 +10551,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -10165,7 +10625,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -10313,7 +10773,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -10387,7 +10847,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -10461,7 +10921,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -10609,7 +11069,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -10683,7 +11143,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -10757,7 +11217,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -10905,7 +11365,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -10979,7 +11439,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -11053,7 +11513,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -11275,7 +11735,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -11349,7 +11809,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -11497,7 +11957,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -11645,7 +12105,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -11793,7 +12253,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -11867,7 +12327,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -12089,7 +12549,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -12237,7 +12697,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -12385,7 +12845,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -12403,7 +12863,7 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -12477,7 +12937,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -12533,7 +12993,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -12551,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -12607,7 +13067,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -12625,7 +13085,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -12755,7 +13215,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -12773,7 +13233,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -12829,7 +13289,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -12921,7 +13381,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -12977,7 +13437,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -12995,7 +13455,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -13051,7 +13511,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -13125,7 +13585,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -13143,7 +13603,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -13273,7 +13733,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -13291,7 +13751,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -13347,7 +13807,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -13365,7 +13825,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -13569,7 +14029,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -13643,7 +14103,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -13717,7 +14177,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -13735,7 +14195,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -13791,7 +14251,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -13848,7 +14308,7 @@
         <v>0</v>
       </c>
       <c r="U162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V162" t="n">
         <v>0</v>
@@ -13922,7 +14382,7 @@
         <v>0</v>
       </c>
       <c r="U163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V163" t="n">
         <v>0</v>
@@ -14013,7 +14473,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -14087,7 +14547,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -14144,7 +14604,7 @@
         <v>0</v>
       </c>
       <c r="U166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V166" t="n">
         <v>0</v>
@@ -14179,7 +14639,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -14218,7 +14678,7 @@
         <v>0</v>
       </c>
       <c r="U167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V167" t="n">
         <v>0</v>
@@ -14292,7 +14752,7 @@
         <v>0</v>
       </c>
       <c r="U168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V168" t="n">
         <v>0</v>
@@ -14366,7 +14826,7 @@
         <v>0</v>
       </c>
       <c r="U169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V169" t="n">
         <v>0</v>
@@ -14383,7 +14843,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -14531,7 +14991,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -14605,7 +15065,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -14753,7 +15213,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -14827,7 +15287,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -14901,7 +15361,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -15123,7 +15583,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -16233,7 +16693,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -16325,7 +16785,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -16455,7 +16915,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -16473,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -16529,7 +16989,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -16603,7 +17063,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -16677,7 +17137,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -16817,7 +17277,7 @@
         <v>0</v>
       </c>
       <c r="X202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -17039,7 +17499,7 @@
         <v>0</v>
       </c>
       <c r="X205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -17335,7 +17795,7 @@
         <v>0</v>
       </c>
       <c r="X209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -17409,7 +17869,7 @@
         <v>0</v>
       </c>
       <c r="X210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -17536,7 +17996,7 @@
         <v>1</v>
       </c>
       <c r="Q212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R212" t="n">
         <v>1</v>
@@ -17551,10 +18011,10 @@
         <v>0</v>
       </c>
       <c r="V212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X212" t="n">
         <v>0</v>
@@ -17610,10 +18070,10 @@
         <v>1</v>
       </c>
       <c r="Q213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S213" t="n">
         <v>0</v>
@@ -17625,10 +18085,10 @@
         <v>0</v>
       </c>
       <c r="V213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X213" t="n">
         <v>0</v>
@@ -17699,7 +18159,7 @@
         <v>0</v>
       </c>
       <c r="V214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W214" t="n">
         <v>0</v>
@@ -17761,7 +18221,7 @@
         <v>1</v>
       </c>
       <c r="R215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S215" t="n">
         <v>0</v>
@@ -17829,7 +18289,7 @@
         <v>1</v>
       </c>
       <c r="P216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q216" t="n">
         <v>0</v>
@@ -17909,7 +18369,7 @@
         <v>1</v>
       </c>
       <c r="R217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S217" t="n">
         <v>0</v>
@@ -17980,10 +18440,10 @@
         <v>0</v>
       </c>
       <c r="Q218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S218" t="n">
         <v>0</v>
@@ -18012,7 +18472,7 @@
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D219" t="n">
         <v>0</v>
@@ -18051,13 +18511,13 @@
         <v>1</v>
       </c>
       <c r="P219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q219" t="n">
         <v>1</v>
       </c>
       <c r="R219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S219" t="n">
         <v>0</v>
@@ -18069,10 +18529,10 @@
         <v>0</v>
       </c>
       <c r="V219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X219" t="n">
         <v>0</v>
@@ -18125,13 +18585,13 @@
         <v>1</v>
       </c>
       <c r="P220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q220" t="n">
         <v>0</v>
       </c>
       <c r="R220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S220" t="n">
         <v>0</v>
@@ -18143,7 +18603,7 @@
         <v>0</v>
       </c>
       <c r="V220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W220" t="n">
         <v>0</v>
@@ -18205,7 +18665,7 @@
         <v>0</v>
       </c>
       <c r="R221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S221" t="n">
         <v>0</v>
@@ -18220,7 +18680,7 @@
         <v>0</v>
       </c>
       <c r="W221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X221" t="n">
         <v>0</v>
@@ -18273,10 +18733,10 @@
         <v>1</v>
       </c>
       <c r="P222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R222" t="n">
         <v>1</v>
@@ -18347,13 +18807,13 @@
         <v>1</v>
       </c>
       <c r="P223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q223" t="n">
         <v>0</v>
       </c>
       <c r="R223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S223" t="n">
         <v>0</v>
@@ -18382,7 +18842,7 @@
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
@@ -18456,7 +18916,7 @@
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D225" t="n">
         <v>0</v>
@@ -18495,7 +18955,7 @@
         <v>1</v>
       </c>
       <c r="P225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q225" t="n">
         <v>0</v>
@@ -18516,7 +18976,7 @@
         <v>0</v>
       </c>
       <c r="W225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X225" t="n">
         <v>0</v>
@@ -18569,10 +19029,10 @@
         <v>1</v>
       </c>
       <c r="P226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R226" t="n">
         <v>0</v>
@@ -18587,7 +19047,7 @@
         <v>0</v>
       </c>
       <c r="V226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W226" t="n">
         <v>0</v>
@@ -18643,13 +19103,13 @@
         <v>1</v>
       </c>
       <c r="P227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
       </c>
       <c r="R227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S227" t="n">
         <v>0</v>
@@ -18678,7 +19138,7 @@
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D228" t="n">
         <v>0</v>
@@ -18717,10 +19177,10 @@
         <v>1</v>
       </c>
       <c r="P228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R228" t="n">
         <v>0</v>
@@ -18738,7 +19198,7 @@
         <v>0</v>
       </c>
       <c r="W228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X228" t="n">
         <v>0</v>
@@ -18797,7 +19257,7 @@
         <v>0</v>
       </c>
       <c r="R229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S229" t="n">
         <v>0</v>
@@ -18826,7 +19286,7 @@
         <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D230" t="n">
         <v>0</v>
@@ -18886,7 +19346,7 @@
         <v>0</v>
       </c>
       <c r="W230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X230" t="n">
         <v>0</v>
@@ -18900,7 +19360,7 @@
         <v>0</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D231" t="n">
         <v>0</v>
@@ -18939,13 +19399,13 @@
         <v>1</v>
       </c>
       <c r="P231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
       </c>
       <c r="R231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S231" t="n">
         <v>0</v>
@@ -18974,7 +19434,7 @@
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D232" t="n">
         <v>0</v>
@@ -19016,7 +19476,7 @@
         <v>0</v>
       </c>
       <c r="Q232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R232" t="n">
         <v>0</v>
@@ -19031,7 +19491,7 @@
         <v>0</v>
       </c>
       <c r="V232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W232" t="n">
         <v>1</v>
@@ -19048,7 +19508,7 @@
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D233" t="n">
         <v>0</v>
@@ -19087,10 +19547,10 @@
         <v>1</v>
       </c>
       <c r="P233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R233" t="n">
         <v>0</v>
@@ -19161,7 +19621,7 @@
         <v>1</v>
       </c>
       <c r="P234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -19179,10 +19639,10 @@
         <v>0</v>
       </c>
       <c r="V234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X234" t="n">
         <v>0</v>
@@ -19196,7 +19656,7 @@
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D235" t="n">
         <v>0</v>
@@ -19315,7 +19775,7 @@
         <v>0</v>
       </c>
       <c r="R236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S236" t="n">
         <v>0</v>
@@ -19327,7 +19787,7 @@
         <v>0</v>
       </c>
       <c r="V236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W236" t="n">
         <v>0</v>
@@ -19386,7 +19846,7 @@
         <v>0</v>
       </c>
       <c r="Q237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R237" t="n">
         <v>0</v>
@@ -19401,7 +19861,7 @@
         <v>0</v>
       </c>
       <c r="V237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W237" t="n">
         <v>0</v>
@@ -19460,10 +19920,10 @@
         <v>0</v>
       </c>
       <c r="Q238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S238" t="n">
         <v>0</v>
@@ -19534,7 +19994,7 @@
         <v>1</v>
       </c>
       <c r="Q239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R239" t="n">
         <v>0</v>
@@ -19605,13 +20065,13 @@
         <v>1</v>
       </c>
       <c r="P240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
       </c>
       <c r="R240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S240" t="n">
         <v>0</v>
@@ -19640,7 +20100,7 @@
         <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D241" t="n">
         <v>0</v>
@@ -19700,7 +20160,7 @@
         <v>0</v>
       </c>
       <c r="W241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X241" t="n">
         <v>0</v>
@@ -19714,7 +20174,7 @@
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D242" t="n">
         <v>0</v>
@@ -19753,13 +20213,13 @@
         <v>1</v>
       </c>
       <c r="P242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
       </c>
       <c r="R242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S242" t="n">
         <v>0</v>
@@ -19830,7 +20290,7 @@
         <v>0</v>
       </c>
       <c r="Q243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R243" t="n">
         <v>1</v>
@@ -19845,7 +20305,7 @@
         <v>0</v>
       </c>
       <c r="V243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W243" t="n">
         <v>0</v>
@@ -19907,7 +20367,7 @@
         <v>1</v>
       </c>
       <c r="R244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S244" t="n">
         <v>0</v>
@@ -19922,7 +20382,7 @@
         <v>0</v>
       </c>
       <c r="W244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X244" t="n">
         <v>0</v>
@@ -19978,7 +20438,7 @@
         <v>1</v>
       </c>
       <c r="Q245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R245" t="n">
         <v>0</v>
@@ -20049,13 +20509,13 @@
         <v>1</v>
       </c>
       <c r="P246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S246" t="n">
         <v>0</v>
@@ -20067,10 +20527,10 @@
         <v>0</v>
       </c>
       <c r="V246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X246" t="n">
         <v>0</v>
@@ -20129,7 +20589,7 @@
         <v>0</v>
       </c>
       <c r="R247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S247" t="n">
         <v>0</v>
@@ -20144,7 +20604,7 @@
         <v>0</v>
       </c>
       <c r="W247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X247" t="n">
         <v>0</v>
@@ -20197,13 +20657,13 @@
         <v>1</v>
       </c>
       <c r="P248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S248" t="n">
         <v>0</v>
@@ -20271,13 +20731,13 @@
         <v>1</v>
       </c>
       <c r="P249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S249" t="n">
         <v>0</v>
@@ -20292,7 +20752,7 @@
         <v>0</v>
       </c>
       <c r="W249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X249" t="n">
         <v>0</v>
@@ -20345,13 +20805,13 @@
         <v>1</v>
       </c>
       <c r="P250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S250" t="n">
         <v>0</v>
@@ -20363,7 +20823,7 @@
         <v>0</v>
       </c>
       <c r="V250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W250" t="n">
         <v>1</v>
@@ -20380,7 +20840,7 @@
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D251" t="n">
         <v>0</v>
@@ -20419,13 +20879,13 @@
         <v>1</v>
       </c>
       <c r="P251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S251" t="n">
         <v>0</v>
@@ -20493,13 +20953,13 @@
         <v>1</v>
       </c>
       <c r="P252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
       </c>
       <c r="R252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S252" t="n">
         <v>0</v>
@@ -20528,7 +20988,7 @@
         <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D253" t="n">
         <v>0</v>
@@ -20588,7 +21048,7 @@
         <v>0</v>
       </c>
       <c r="W253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X253" t="n">
         <v>0</v>
@@ -20602,7 +21062,7 @@
         <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D254" t="n">
         <v>0</v>
@@ -20659,10 +21119,10 @@
         <v>0</v>
       </c>
       <c r="V254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X254" t="n">
         <v>0</v>
@@ -20676,7 +21136,7 @@
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D255" t="n">
         <v>0</v>
@@ -20718,7 +21178,7 @@
         <v>0</v>
       </c>
       <c r="Q255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R255" t="n">
         <v>0</v>
@@ -20736,7 +21196,7 @@
         <v>0</v>
       </c>
       <c r="W255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X255" t="n">
         <v>0</v>
@@ -20789,10 +21249,10 @@
         <v>1</v>
       </c>
       <c r="P256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R256" t="n">
         <v>0</v>
@@ -20810,7 +21270,7 @@
         <v>0</v>
       </c>
       <c r="W256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X256" t="n">
         <v>0</v>
@@ -20824,7 +21284,7 @@
         <v>0</v>
       </c>
       <c r="C257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D257" t="n">
         <v>0</v>
@@ -20863,7 +21323,7 @@
         <v>1</v>
       </c>
       <c r="P257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q257" t="n">
         <v>0</v>
@@ -20937,13 +21397,13 @@
         <v>1</v>
       </c>
       <c r="P258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S258" t="n">
         <v>0</v>
@@ -20958,7 +21418,7 @@
         <v>0</v>
       </c>
       <c r="W258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X258" t="n">
         <v>0</v>
@@ -20972,7 +21432,7 @@
         <v>0</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D259" t="n">
         <v>0</v>
@@ -21011,13 +21471,13 @@
         <v>1</v>
       </c>
       <c r="P259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
       </c>
       <c r="R259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S259" t="n">
         <v>0</v>
@@ -21029,7 +21489,7 @@
         <v>0</v>
       </c>
       <c r="V259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W259" t="n">
         <v>0</v>
@@ -21046,7 +21506,7 @@
         <v>0</v>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D260" t="n">
         <v>0</v>
@@ -21085,13 +21545,13 @@
         <v>1</v>
       </c>
       <c r="P260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S260" t="n">
         <v>0</v>
@@ -21103,10 +21563,10 @@
         <v>0</v>
       </c>
       <c r="V260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X260" t="n">
         <v>0</v>
@@ -21177,7 +21637,7 @@
         <v>0</v>
       </c>
       <c r="V261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W261" t="n">
         <v>0</v>
@@ -21194,7 +21654,7 @@
         <v>0</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D262" t="n">
         <v>0</v>
@@ -21230,7 +21690,7 @@
         <v>0</v>
       </c>
       <c r="O262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P262" t="n">
         <v>1</v>
@@ -21251,10 +21711,10 @@
         <v>0</v>
       </c>
       <c r="V262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X262" t="n">
         <v>0</v>
@@ -21304,7 +21764,7 @@
         <v>0</v>
       </c>
       <c r="O263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P263" t="n">
         <v>1</v>
@@ -21313,7 +21773,7 @@
         <v>0</v>
       </c>
       <c r="R263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S263" t="n">
         <v>0</v>
@@ -21328,7 +21788,7 @@
         <v>0</v>
       </c>
       <c r="W263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X263" t="n">
         <v>0</v>
@@ -21342,7 +21802,7 @@
         <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D264" t="n">
         <v>0</v>
@@ -21378,13 +21838,13 @@
         <v>0</v>
       </c>
       <c r="O264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P264" t="n">
         <v>1</v>
       </c>
       <c r="Q264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R264" t="n">
         <v>1</v>
@@ -21399,7 +21859,7 @@
         <v>0</v>
       </c>
       <c r="V264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W264" t="n">
         <v>1</v>
@@ -21461,7 +21921,7 @@
         <v>0</v>
       </c>
       <c r="R265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S265" t="n">
         <v>0</v>
@@ -21490,7 +21950,7 @@
         <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D266" t="n">
         <v>0</v>
@@ -21547,7 +22007,7 @@
         <v>0</v>
       </c>
       <c r="V266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W266" t="n">
         <v>0</v>
@@ -21564,7 +22024,7 @@
         <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D267" t="n">
         <v>0</v>
@@ -21609,7 +22069,7 @@
         <v>1</v>
       </c>
       <c r="R267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S267" t="n">
         <v>0</v>
@@ -21621,10 +22081,10 @@
         <v>0</v>
       </c>
       <c r="V267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X267" t="n">
         <v>0</v>
@@ -21680,10 +22140,10 @@
         <v>1</v>
       </c>
       <c r="Q268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S268" t="n">
         <v>0</v>
@@ -21712,7 +22172,7 @@
         <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D269" t="n">
         <v>0</v>
@@ -21754,7 +22214,7 @@
         <v>1</v>
       </c>
       <c r="Q269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R269" t="n">
         <v>1</v>
@@ -21786,7 +22246,7 @@
         <v>0</v>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D270" t="n">
         <v>0</v>
@@ -21822,7 +22282,7 @@
         <v>0</v>
       </c>
       <c r="O270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P270" t="n">
         <v>1</v>
@@ -21843,10 +22303,10 @@
         <v>0</v>
       </c>
       <c r="V270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X270" t="n">
         <v>0</v>
@@ -21896,13 +22356,13 @@
         <v>0</v>
       </c>
       <c r="O271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P271" t="n">
         <v>1</v>
       </c>
       <c r="Q271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R271" t="n">
         <v>0</v>
@@ -21920,7 +22380,7 @@
         <v>0</v>
       </c>
       <c r="W271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X271" t="n">
         <v>0</v>
@@ -21934,7 +22394,7 @@
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D272" t="n">
         <v>0</v>
@@ -21979,7 +22439,7 @@
         <v>0</v>
       </c>
       <c r="R272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S272" t="n">
         <v>0</v>
@@ -22008,7 +22468,7 @@
         <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D273" t="n">
         <v>0</v>
@@ -22044,13 +22504,13 @@
         <v>0</v>
       </c>
       <c r="O273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P273" t="n">
         <v>1</v>
       </c>
       <c r="Q273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R273" t="n">
         <v>0</v>
@@ -22065,10 +22525,10 @@
         <v>0</v>
       </c>
       <c r="V273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X273" t="n">
         <v>0</v>
@@ -22082,7 +22542,7 @@
         <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D274" t="n">
         <v>0</v>
@@ -22124,10 +22584,10 @@
         <v>1</v>
       </c>
       <c r="Q274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S274" t="n">
         <v>0</v>
@@ -22139,7 +22599,7 @@
         <v>0</v>
       </c>
       <c r="V274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W274" t="n">
         <v>0</v>
@@ -22192,16 +22652,16 @@
         <v>0</v>
       </c>
       <c r="O275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P275" t="n">
         <v>1</v>
       </c>
       <c r="Q275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S275" t="n">
         <v>0</v>
@@ -22216,7 +22676,7 @@
         <v>0</v>
       </c>
       <c r="W275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X275" t="n">
         <v>0</v>
@@ -22230,7 +22690,7 @@
         <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D276" t="n">
         <v>0</v>
@@ -22272,10 +22732,10 @@
         <v>1</v>
       </c>
       <c r="Q276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S276" t="n">
         <v>0</v>
@@ -22378,7 +22838,7 @@
         <v>0</v>
       </c>
       <c r="C278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D278" t="n">
         <v>0</v>
@@ -22438,7 +22898,7 @@
         <v>0</v>
       </c>
       <c r="W278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X278" t="n">
         <v>0</v>
@@ -22488,16 +22948,16 @@
         <v>0</v>
       </c>
       <c r="O279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P279" t="n">
         <v>1</v>
       </c>
       <c r="Q279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S279" t="n">
         <v>0</v>
@@ -22509,7 +22969,7 @@
         <v>0</v>
       </c>
       <c r="V279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W279" t="n">
         <v>0</v>
@@ -22562,7 +23022,7 @@
         <v>0</v>
       </c>
       <c r="O280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P280" t="n">
         <v>1</v>
@@ -22571,7 +23031,7 @@
         <v>0</v>
       </c>
       <c r="R280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S280" t="n">
         <v>0</v>
@@ -22583,7 +23043,7 @@
         <v>0</v>
       </c>
       <c r="V280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W280" t="n">
         <v>0</v>
@@ -22600,7 +23060,7 @@
         <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D281" t="n">
         <v>0</v>
@@ -22636,7 +23096,7 @@
         <v>0</v>
       </c>
       <c r="O281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P281" t="n">
         <v>1</v>
@@ -22645,7 +23105,7 @@
         <v>1</v>
       </c>
       <c r="R281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S281" t="n">
         <v>0</v>
@@ -22660,7 +23120,7 @@
         <v>0</v>
       </c>
       <c r="W281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X281" t="n">
         <v>0</v>
@@ -22674,7 +23134,7 @@
         <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D282" t="n">
         <v>0</v>
@@ -22710,7 +23170,7 @@
         <v>0</v>
       </c>
       <c r="O282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P282" t="n">
         <v>1</v>
@@ -22719,7 +23179,7 @@
         <v>1</v>
       </c>
       <c r="R282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S282" t="n">
         <v>0</v>
@@ -22748,7 +23208,7 @@
         <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D283" t="n">
         <v>0</v>
@@ -22784,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="O283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P283" t="n">
         <v>1</v>
@@ -22879,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="V284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W284" t="n">
         <v>1</v>
@@ -22896,7 +23356,7 @@
         <v>0</v>
       </c>
       <c r="C285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D285" t="n">
         <v>0</v>
@@ -22941,7 +23401,7 @@
         <v>1</v>
       </c>
       <c r="R285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S285" t="n">
         <v>0</v>
@@ -22953,10 +23413,10 @@
         <v>0</v>
       </c>
       <c r="V285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X285" t="n">
         <v>0</v>
@@ -23006,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="O286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P286" t="n">
         <v>1</v>
       </c>
       <c r="Q286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S286" t="n">
         <v>0</v>
@@ -23044,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D287" t="n">
         <v>0</v>
@@ -23086,10 +23546,10 @@
         <v>1</v>
       </c>
       <c r="Q287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S287" t="n">
         <v>0</v>
@@ -23101,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="V287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W287" t="n">
         <v>0</v>
@@ -23154,7 +23614,7 @@
         <v>0</v>
       </c>
       <c r="O288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P288" t="n">
         <v>1</v>
@@ -23228,13 +23688,13 @@
         <v>0</v>
       </c>
       <c r="O289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P289" t="n">
         <v>1</v>
       </c>
       <c r="Q289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R289" t="n">
         <v>0</v>
@@ -23266,7 +23726,7 @@
         <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D290" t="n">
         <v>0</v>
@@ -23302,16 +23762,16 @@
         <v>0</v>
       </c>
       <c r="O290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P290" t="n">
         <v>1</v>
       </c>
       <c r="Q290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S290" t="n">
         <v>0</v>
@@ -23397,10 +23857,10 @@
         <v>0</v>
       </c>
       <c r="V291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X291" t="n">
         <v>0</v>
@@ -23414,7 +23874,7 @@
         <v>0</v>
       </c>
       <c r="C292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D292" t="n">
         <v>0</v>
@@ -23459,7 +23919,7 @@
         <v>0</v>
       </c>
       <c r="R292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S292" t="n">
         <v>0</v>
@@ -23471,10 +23931,10 @@
         <v>0</v>
       </c>
       <c r="V292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X292" t="n">
         <v>0</v>
@@ -23488,7 +23948,7 @@
         <v>0</v>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D293" t="n">
         <v>0</v>
@@ -23524,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="O293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P293" t="n">
         <v>1</v>
@@ -23604,7 +24064,7 @@
         <v>1</v>
       </c>
       <c r="Q294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R294" t="n">
         <v>0</v>
@@ -23636,7 +24096,7 @@
         <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D295" t="n">
         <v>0</v>
@@ -23678,10 +24138,10 @@
         <v>1</v>
       </c>
       <c r="Q295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S295" t="n">
         <v>0</v>
@@ -23693,10 +24153,10 @@
         <v>0</v>
       </c>
       <c r="V295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X295" t="n">
         <v>0</v>
@@ -23746,13 +24206,13 @@
         <v>0</v>
       </c>
       <c r="O296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P296" t="n">
         <v>1</v>
       </c>
       <c r="Q296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R296" t="n">
         <v>0</v>
@@ -23784,7 +24244,7 @@
         <v>0</v>
       </c>
       <c r="C297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D297" t="n">
         <v>0</v>
@@ -23820,7 +24280,7 @@
         <v>0</v>
       </c>
       <c r="O297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P297" t="n">
         <v>1</v>
@@ -23858,7 +24318,7 @@
         <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D298" t="n">
         <v>0</v>
@@ -23894,7 +24354,7 @@
         <v>0</v>
       </c>
       <c r="O298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P298" t="n">
         <v>1</v>
@@ -23915,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="V298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W298" t="n">
         <v>0</v>
@@ -23968,7 +24428,7 @@
         <v>0</v>
       </c>
       <c r="O299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P299" t="n">
         <v>1</v>
@@ -23989,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="V299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W299" t="n">
         <v>0</v>
@@ -24006,7 +24466,7 @@
         <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D300" t="n">
         <v>0</v>
@@ -24080,7 +24540,7 @@
         <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D301" t="n">
         <v>0</v>
@@ -24116,7 +24576,7 @@
         <v>0</v>
       </c>
       <c r="O301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P301" t="n">
         <v>1</v>
@@ -24125,7 +24585,7 @@
         <v>1</v>
       </c>
       <c r="R301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S301" t="n">
         <v>0</v>
@@ -24137,7 +24597,7 @@
         <v>0</v>
       </c>
       <c r="V301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W301" t="n">
         <v>0</v>
@@ -24190,16 +24650,16 @@
         <v>0</v>
       </c>
       <c r="O302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P302" t="n">
         <v>1</v>
       </c>
       <c r="Q302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S302" t="n">
         <v>0</v>
@@ -24264,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="O303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P303" t="n">
         <v>1</v>
@@ -24302,7 +24762,7 @@
         <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D304" t="n">
         <v>0</v>
@@ -24338,7 +24798,7 @@
         <v>0</v>
       </c>
       <c r="O304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P304" t="n">
         <v>1</v>
@@ -24347,7 +24807,7 @@
         <v>1</v>
       </c>
       <c r="R304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S304" t="n">
         <v>0</v>
@@ -24359,10 +24819,10 @@
         <v>0</v>
       </c>
       <c r="V304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X304" t="n">
         <v>0</v>
@@ -24418,10 +24878,10 @@
         <v>1</v>
       </c>
       <c r="Q305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S305" t="n">
         <v>0</v>
@@ -24433,7 +24893,7 @@
         <v>0</v>
       </c>
       <c r="V305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W305" t="n">
         <v>0</v>
@@ -24450,7 +24910,7 @@
         <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D306" t="n">
         <v>0</v>
@@ -24486,13 +24946,13 @@
         <v>0</v>
       </c>
       <c r="O306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P306" t="n">
         <v>1</v>
       </c>
       <c r="Q306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R306" t="n">
         <v>0</v>
@@ -24507,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="V306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X306" t="n">
         <v>0</v>
@@ -24524,7 +24984,7 @@
         <v>0</v>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D307" t="n">
         <v>0</v>
@@ -24566,10 +25026,10 @@
         <v>1</v>
       </c>
       <c r="Q307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S307" t="n">
         <v>0</v>
@@ -24598,7 +25058,7 @@
         <v>0</v>
       </c>
       <c r="C308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D308" t="n">
         <v>0</v>
@@ -24643,7 +25103,7 @@
         <v>1</v>
       </c>
       <c r="R308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S308" t="n">
         <v>0</v>
@@ -24672,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D309" t="n">
         <v>0</v>
@@ -24717,7 +25177,7 @@
         <v>1</v>
       </c>
       <c r="R309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S309" t="n">
         <v>0</v>
@@ -24729,7 +25189,7 @@
         <v>0</v>
       </c>
       <c r="V309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W309" t="n">
         <v>0</v>
@@ -24746,7 +25206,7 @@
         <v>0</v>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D310" t="n">
         <v>0</v>
@@ -24788,10 +25248,10 @@
         <v>1</v>
       </c>
       <c r="Q310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S310" t="n">
         <v>0</v>
@@ -24865,7 +25325,7 @@
         <v>1</v>
       </c>
       <c r="R311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S311" t="n">
         <v>0</v>
@@ -24877,10 +25337,10 @@
         <v>0</v>
       </c>
       <c r="V311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X311" t="n">
         <v>0</v>
@@ -24894,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D312" t="n">
         <v>0</v>
@@ -24930,7 +25390,7 @@
         <v>0</v>
       </c>
       <c r="O312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P312" t="n">
         <v>1</v>
@@ -24954,7 +25414,7 @@
         <v>0</v>
       </c>
       <c r="W312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X312" t="n">
         <v>0</v>
@@ -24968,7 +25428,7 @@
         <v>0</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D313" t="n">
         <v>0</v>
@@ -25013,7 +25473,7 @@
         <v>1</v>
       </c>
       <c r="R313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S313" t="n">
         <v>0</v>
@@ -25028,7 +25488,7 @@
         <v>0</v>
       </c>
       <c r="W313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X313" t="n">
         <v>0</v>
@@ -25084,7 +25544,7 @@
         <v>1</v>
       </c>
       <c r="Q314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R314" t="n">
         <v>0</v>
@@ -25099,7 +25559,7 @@
         <v>0</v>
       </c>
       <c r="V314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W314" t="n">
         <v>1</v>
@@ -25152,13 +25612,13 @@
         <v>0</v>
       </c>
       <c r="O315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P315" t="n">
         <v>1</v>
       </c>
       <c r="Q315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R315" t="n">
         <v>0</v>
@@ -25173,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="V315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W315" t="n">
         <v>0</v>
@@ -25190,7 +25650,7 @@
         <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D316" t="n">
         <v>0</v>
@@ -25232,10 +25692,10 @@
         <v>1</v>
       </c>
       <c r="Q316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S316" t="n">
         <v>0</v>
@@ -25250,7 +25710,7 @@
         <v>0</v>
       </c>
       <c r="W316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X316" t="n">
         <v>0</v>
@@ -25264,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D317" t="n">
         <v>0</v>
@@ -25306,10 +25766,10 @@
         <v>1</v>
       </c>
       <c r="Q317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S317" t="n">
         <v>0</v>
@@ -25338,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D318" t="n">
         <v>0</v>
@@ -25380,7 +25840,7 @@
         <v>1</v>
       </c>
       <c r="Q318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R318" t="n">
         <v>1</v>
@@ -25398,7 +25858,7 @@
         <v>0</v>
       </c>
       <c r="W318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X318" t="n">
         <v>0</v>
@@ -25454,7 +25914,7 @@
         <v>1</v>
       </c>
       <c r="Q319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R319" t="n">
         <v>1</v>
@@ -25469,7 +25929,7 @@
         <v>0</v>
       </c>
       <c r="V319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W319" t="n">
         <v>0</v>
@@ -25486,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D320" t="n">
         <v>0</v>
@@ -25522,7 +25982,7 @@
         <v>0</v>
       </c>
       <c r="O320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P320" t="n">
         <v>1</v>
@@ -25543,7 +26003,7 @@
         <v>0</v>
       </c>
       <c r="V320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W320" t="n">
         <v>1</v>
@@ -25560,7 +26020,7 @@
         <v>0</v>
       </c>
       <c r="C321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D321" t="n">
         <v>0</v>
@@ -25596,13 +26056,13 @@
         <v>0</v>
       </c>
       <c r="O321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P321" t="n">
         <v>1</v>
       </c>
       <c r="Q321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R321" t="n">
         <v>0</v>
@@ -25617,10 +26077,10 @@
         <v>0</v>
       </c>
       <c r="V321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X321" t="n">
         <v>0</v>
@@ -25634,7 +26094,7 @@
         <v>0</v>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D322" t="n">
         <v>0</v>
@@ -25691,7 +26151,7 @@
         <v>0</v>
       </c>
       <c r="V322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W322" t="n">
         <v>0</v>
@@ -25708,7 +26168,7 @@
         <v>0</v>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D323" t="n">
         <v>0</v>
@@ -25750,10 +26210,10 @@
         <v>1</v>
       </c>
       <c r="Q323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S323" t="n">
         <v>0</v>
@@ -25782,7 +26242,7 @@
         <v>0</v>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D324" t="n">
         <v>0</v>
@@ -25839,7 +26299,7 @@
         <v>0</v>
       </c>
       <c r="V324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W324" t="n">
         <v>0</v>
@@ -25856,7 +26316,7 @@
         <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D325" t="n">
         <v>0</v>
@@ -25892,13 +26352,13 @@
         <v>0</v>
       </c>
       <c r="O325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P325" t="n">
         <v>1</v>
       </c>
       <c r="Q325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R325" t="n">
         <v>0</v>
@@ -25966,7 +26426,7 @@
         <v>0</v>
       </c>
       <c r="O326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P326" t="n">
         <v>1</v>
@@ -25975,7 +26435,7 @@
         <v>0</v>
       </c>
       <c r="R326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S326" t="n">
         <v>0</v>
@@ -25987,7 +26447,7 @@
         <v>0</v>
       </c>
       <c r="V326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W326" t="n">
         <v>0</v>
@@ -26004,7 +26464,7 @@
         <v>0</v>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D327" t="n">
         <v>0</v>
@@ -26040,7 +26500,7 @@
         <v>0</v>
       </c>
       <c r="O327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P327" t="n">
         <v>1</v>
@@ -26061,10 +26521,10 @@
         <v>0</v>
       </c>
       <c r="V327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X327" t="n">
         <v>0</v>
@@ -26120,10 +26580,10 @@
         <v>1</v>
       </c>
       <c r="Q328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S328" t="n">
         <v>0</v>
@@ -26188,7 +26648,7 @@
         <v>0</v>
       </c>
       <c r="O329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P329" t="n">
         <v>1</v>
@@ -26197,7 +26657,7 @@
         <v>0</v>
       </c>
       <c r="R329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S329" t="n">
         <v>0</v>
@@ -26209,7 +26669,7 @@
         <v>0</v>
       </c>
       <c r="V329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W329" t="n">
         <v>0</v>
@@ -26268,10 +26728,10 @@
         <v>1</v>
       </c>
       <c r="Q330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S330" t="n">
         <v>0</v>
@@ -26286,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="W330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X330" t="n">
         <v>0</v>
@@ -26336,16 +26796,16 @@
         <v>0</v>
       </c>
       <c r="O331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P331" t="n">
         <v>1</v>
       </c>
       <c r="Q331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S331" t="n">
         <v>0</v>
@@ -26360,7 +26820,7 @@
         <v>0</v>
       </c>
       <c r="W331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X331" t="n">
         <v>0</v>
@@ -26431,7 +26891,7 @@
         <v>0</v>
       </c>
       <c r="V332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W332" t="n">
         <v>0</v>
@@ -26448,7 +26908,7 @@
         <v>0</v>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D333" t="n">
         <v>0</v>
@@ -26505,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="V333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W333" t="n">
         <v>0</v>
@@ -26567,7 +27027,7 @@
         <v>1</v>
       </c>
       <c r="R334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S334" t="n">
         <v>0</v>
@@ -26579,7 +27039,7 @@
         <v>0</v>
       </c>
       <c r="V334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W334" t="n">
         <v>0</v>
@@ -26632,7 +27092,7 @@
         <v>0</v>
       </c>
       <c r="O335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P335" t="n">
         <v>1</v>
@@ -26641,7 +27101,7 @@
         <v>0</v>
       </c>
       <c r="R335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S335" t="n">
         <v>0</v>
@@ -26656,7 +27116,7 @@
         <v>0</v>
       </c>
       <c r="W335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X335" t="n">
         <v>0</v>
@@ -26706,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P336" t="n">
         <v>1</v>
@@ -26744,7 +27204,7 @@
         <v>0</v>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D337" t="n">
         <v>0</v>
@@ -26860,7 +27320,7 @@
         <v>1</v>
       </c>
       <c r="Q338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R338" t="n">
         <v>0</v>
@@ -26928,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="O339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P339" t="n">
         <v>1</v>
       </c>
       <c r="Q339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R339" t="n">
         <v>1</v>
@@ -26966,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="C340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D340" t="n">
         <v>0</v>
@@ -27008,10 +27468,10 @@
         <v>1</v>
       </c>
       <c r="Q340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S340" t="n">
         <v>0</v>
@@ -27026,7 +27486,7 @@
         <v>0</v>
       </c>
       <c r="W340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X340" t="n">
         <v>0</v>
@@ -27097,10 +27557,10 @@
         <v>0</v>
       </c>
       <c r="V341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X341" t="n">
         <v>0</v>
@@ -27114,7 +27574,7 @@
         <v>0</v>
       </c>
       <c r="C342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D342" t="n">
         <v>0</v>
@@ -27171,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="V342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W342" t="n">
         <v>0</v>
@@ -27188,7 +27648,7 @@
         <v>0</v>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D343" t="n">
         <v>0</v>
@@ -27233,7 +27693,7 @@
         <v>1</v>
       </c>
       <c r="R343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S343" t="n">
         <v>0</v>
@@ -27262,7 +27722,7 @@
         <v>0</v>
       </c>
       <c r="C344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D344" t="n">
         <v>0</v>
@@ -27307,7 +27767,7 @@
         <v>1</v>
       </c>
       <c r="R344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S344" t="n">
         <v>0</v>
@@ -27319,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="V344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X344" t="n">
         <v>0</v>
@@ -27336,7 +27796,7 @@
         <v>0</v>
       </c>
       <c r="C345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D345" t="n">
         <v>0</v>
@@ -27372,7 +27832,7 @@
         <v>0</v>
       </c>
       <c r="O345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P345" t="n">
         <v>1</v>
@@ -27396,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="W345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X345" t="n">
         <v>0</v>
@@ -27446,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="O346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
       </c>
       <c r="R346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S346" t="n">
         <v>0</v>
@@ -27484,7 +27944,7 @@
         <v>0</v>
       </c>
       <c r="C347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D347" t="n">
         <v>0</v>
@@ -27523,7 +27983,7 @@
         <v>1</v>
       </c>
       <c r="P347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -27594,7 +28054,7 @@
         <v>0</v>
       </c>
       <c r="O348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P348" t="n">
         <v>1</v>
@@ -27615,10 +28075,10 @@
         <v>0</v>
       </c>
       <c r="V348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X348" t="n">
         <v>0</v>
@@ -27668,10 +28128,10 @@
         <v>0</v>
       </c>
       <c r="O349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -27689,10 +28149,10 @@
         <v>0</v>
       </c>
       <c r="V349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X349" t="n">
         <v>0</v>
@@ -27742,16 +28202,16 @@
         <v>0</v>
       </c>
       <c r="O350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
       </c>
       <c r="R350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S350" t="n">
         <v>0</v>
@@ -27763,10 +28223,10 @@
         <v>0</v>
       </c>
       <c r="V350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X350" t="n">
         <v>0</v>
@@ -27780,7 +28240,7 @@
         <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D351" t="n">
         <v>0</v>
@@ -27819,7 +28279,7 @@
         <v>1</v>
       </c>
       <c r="P351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -27837,10 +28297,10 @@
         <v>0</v>
       </c>
       <c r="V351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X351" t="n">
         <v>0</v>
@@ -27890,7 +28350,7 @@
         <v>0</v>
       </c>
       <c r="O352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P352" t="n">
         <v>0</v>
@@ -27911,7 +28371,7 @@
         <v>0</v>
       </c>
       <c r="V352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W352" t="n">
         <v>0</v>
@@ -27928,7 +28388,7 @@
         <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D353" t="n">
         <v>0</v>
@@ -28002,7 +28462,7 @@
         <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D354" t="n">
         <v>0</v>
@@ -28041,7 +28501,7 @@
         <v>0</v>
       </c>
       <c r="P354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -28076,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="C355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D355" t="n">
         <v>0</v>
@@ -28195,7 +28655,7 @@
         <v>1</v>
       </c>
       <c r="R356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S356" t="n">
         <v>0</v>
@@ -28224,7 +28684,7 @@
         <v>0</v>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D357" t="n">
         <v>0</v>
@@ -28263,13 +28723,13 @@
         <v>1</v>
       </c>
       <c r="P357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
       </c>
       <c r="R357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S357" t="n">
         <v>0</v>
@@ -28337,13 +28797,13 @@
         <v>1</v>
       </c>
       <c r="P358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
       </c>
       <c r="R358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S358" t="n">
         <v>0</v>
@@ -28358,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="W358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X358" t="n">
         <v>0</v>
@@ -28408,7 +28868,7 @@
         <v>0</v>
       </c>
       <c r="O359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P359" t="n">
         <v>1</v>
@@ -28417,7 +28877,7 @@
         <v>1</v>
       </c>
       <c r="R359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S359" t="n">
         <v>0</v>
@@ -28429,10 +28889,10 @@
         <v>0</v>
       </c>
       <c r="V359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X359" t="n">
         <v>0</v>
@@ -28446,7 +28906,7 @@
         <v>0</v>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -28482,7 +28942,7 @@
         <v>0</v>
       </c>
       <c r="O360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P360" t="n">
         <v>1</v>
@@ -28556,7 +29016,7 @@
         <v>0</v>
       </c>
       <c r="O361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P361" t="n">
         <v>1</v>
@@ -28565,7 +29025,7 @@
         <v>1</v>
       </c>
       <c r="R361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S361" t="n">
         <v>0</v>
@@ -28577,7 +29037,7 @@
         <v>0</v>
       </c>
       <c r="V361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W361" t="n">
         <v>0</v>
@@ -28594,7 +29054,7 @@
         <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -28639,7 +29099,7 @@
         <v>1</v>
       </c>
       <c r="R362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S362" t="n">
         <v>0</v>
@@ -28668,7 +29128,7 @@
         <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -28704,10 +29164,10 @@
         <v>0</v>
       </c>
       <c r="O363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -28725,10 +29185,10 @@
         <v>0</v>
       </c>
       <c r="V363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X363" t="n">
         <v>0</v>
@@ -28742,7 +29202,7 @@
         <v>0</v>
       </c>
       <c r="C364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -28781,13 +29241,13 @@
         <v>1</v>
       </c>
       <c r="P364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
       </c>
       <c r="R364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S364" t="n">
         <v>0</v>
@@ -28852,10 +29312,10 @@
         <v>0</v>
       </c>
       <c r="O365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -28873,10 +29333,10 @@
         <v>0</v>
       </c>
       <c r="V365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X365" t="n">
         <v>0</v>
@@ -28929,7 +29389,7 @@
         <v>1</v>
       </c>
       <c r="P366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -29000,10 +29460,10 @@
         <v>0</v>
       </c>
       <c r="O367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -29021,10 +29481,10 @@
         <v>0</v>
       </c>
       <c r="V367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X367" t="n">
         <v>0</v>
@@ -29038,7 +29498,7 @@
         <v>0</v>
       </c>
       <c r="C368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -29083,7 +29543,7 @@
         <v>1</v>
       </c>
       <c r="R368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S368" t="n">
         <v>0</v>
@@ -29112,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="C369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -29151,13 +29611,13 @@
         <v>0</v>
       </c>
       <c r="P369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
       </c>
       <c r="R369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S369" t="n">
         <v>0</v>
@@ -29169,10 +29629,10 @@
         <v>0</v>
       </c>
       <c r="V369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X369" t="n">
         <v>0</v>
@@ -29222,7 +29682,7 @@
         <v>0</v>
       </c>
       <c r="O370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P370" t="n">
         <v>0</v>
@@ -29243,10 +29703,10 @@
         <v>0</v>
       </c>
       <c r="V370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X370" t="n">
         <v>0</v>
@@ -29260,7 +29720,7 @@
         <v>0</v>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -29296,10 +29756,10 @@
         <v>0</v>
       </c>
       <c r="O371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
@@ -29370,7 +29830,7 @@
         <v>0</v>
       </c>
       <c r="O372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P372" t="n">
         <v>1</v>
@@ -29379,7 +29839,7 @@
         <v>1</v>
       </c>
       <c r="R372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S372" t="n">
         <v>0</v>
@@ -29394,7 +29854,7 @@
         <v>0</v>
       </c>
       <c r="W372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X372" t="n">
         <v>0</v>
@@ -29453,7 +29913,7 @@
         <v>1</v>
       </c>
       <c r="R373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S373" t="n">
         <v>0</v>
@@ -29482,7 +29942,7 @@
         <v>0</v>
       </c>
       <c r="C374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D374" t="n">
         <v>0</v>
@@ -29518,7 +29978,7 @@
         <v>0</v>
       </c>
       <c r="O374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P374" t="n">
         <v>1</v>
@@ -29527,7 +29987,7 @@
         <v>1</v>
       </c>
       <c r="R374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S374" t="n">
         <v>0</v>
@@ -29539,7 +29999,7 @@
         <v>0</v>
       </c>
       <c r="V374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W374" t="n">
         <v>1</v>
@@ -29592,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="O375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P375" t="n">
         <v>1</v>
@@ -29675,7 +30135,7 @@
         <v>1</v>
       </c>
       <c r="R376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S376" t="n">
         <v>0</v>
@@ -29687,7 +30147,7 @@
         <v>0</v>
       </c>
       <c r="V376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W376" t="n">
         <v>0</v>
@@ -29704,7 +30164,7 @@
         <v>0</v>
       </c>
       <c r="C377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D377" t="n">
         <v>0</v>
@@ -29740,7 +30200,7 @@
         <v>0</v>
       </c>
       <c r="O377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P377" t="n">
         <v>1</v>
@@ -29749,7 +30209,7 @@
         <v>1</v>
       </c>
       <c r="R377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S377" t="n">
         <v>0</v>
@@ -29778,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="C378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D378" t="n">
         <v>0</v>
@@ -29814,16 +30274,16 @@
         <v>0</v>
       </c>
       <c r="O378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q378" t="n">
         <v>1</v>
       </c>
       <c r="R378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S378" t="n">
         <v>0</v>
@@ -29838,7 +30298,7 @@
         <v>1</v>
       </c>
       <c r="W378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X378" t="n">
         <v>0</v>
@@ -29852,7 +30312,7 @@
         <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D379" t="n">
         <v>0</v>
@@ -30036,7 +30496,7 @@
         <v>0</v>
       </c>
       <c r="O381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P381" t="n">
         <v>0</v>
@@ -30045,7 +30505,7 @@
         <v>1</v>
       </c>
       <c r="R381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S381" t="n">
         <v>0</v>
@@ -30057,10 +30517,10 @@
         <v>0</v>
       </c>
       <c r="V381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X381" t="n">
         <v>0</v>
@@ -30074,7 +30534,7 @@
         <v>0</v>
       </c>
       <c r="C382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D382" t="n">
         <v>0</v>
@@ -30113,13 +30573,13 @@
         <v>0</v>
       </c>
       <c r="P382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
       </c>
       <c r="R382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S382" t="n">
         <v>0</v>
@@ -30131,7 +30591,7 @@
         <v>0</v>
       </c>
       <c r="V382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W382" t="n">
         <v>1</v>
@@ -30148,7 +30608,7 @@
         <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D383" t="n">
         <v>0</v>
@@ -30184,16 +30644,16 @@
         <v>0</v>
       </c>
       <c r="O383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q383" t="n">
         <v>1</v>
       </c>
       <c r="R383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S383" t="n">
         <v>0</v>
@@ -30222,7 +30682,7 @@
         <v>0</v>
       </c>
       <c r="C384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D384" t="n">
         <v>0</v>
@@ -30261,13 +30721,13 @@
         <v>1</v>
       </c>
       <c r="P384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
       </c>
       <c r="R384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S384" t="n">
         <v>0</v>
@@ -30341,7 +30801,7 @@
         <v>1</v>
       </c>
       <c r="R385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S385" t="n">
         <v>0</v>
@@ -30353,7 +30813,7 @@
         <v>0</v>
       </c>
       <c r="V385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W385" t="n">
         <v>0</v>
@@ -30370,7 +30830,7 @@
         <v>0</v>
       </c>
       <c r="C386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D386" t="n">
         <v>0</v>
@@ -30489,7 +30949,7 @@
         <v>1</v>
       </c>
       <c r="R387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S387" t="n">
         <v>0</v>
@@ -30504,7 +30964,7 @@
         <v>0</v>
       </c>
       <c r="W387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X387" t="n">
         <v>0</v>
@@ -30563,7 +31023,7 @@
         <v>1</v>
       </c>
       <c r="R388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S388" t="n">
         <v>0</v>
@@ -30575,10 +31035,10 @@
         <v>0</v>
       </c>
       <c r="V388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X388" t="n">
         <v>0</v>
@@ -30649,7 +31109,7 @@
         <v>0</v>
       </c>
       <c r="V389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W389" t="n">
         <v>0</v>
@@ -30666,7 +31126,7 @@
         <v>0</v>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D390" t="n">
         <v>0</v>
@@ -30702,7 +31162,7 @@
         <v>0</v>
       </c>
       <c r="O390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P390" t="n">
         <v>1</v>
@@ -30723,10 +31183,10 @@
         <v>0</v>
       </c>
       <c r="V390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X390" t="n">
         <v>0</v>
@@ -30776,16 +31236,16 @@
         <v>0</v>
       </c>
       <c r="O391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q391" t="n">
         <v>1</v>
       </c>
       <c r="R391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S391" t="n">
         <v>0</v>
@@ -30800,7 +31260,7 @@
         <v>0</v>
       </c>
       <c r="W391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X391" t="n">
         <v>0</v>
@@ -30814,7 +31274,7 @@
         <v>0</v>
       </c>
       <c r="C392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D392" t="n">
         <v>0</v>
@@ -30853,13 +31313,13 @@
         <v>1</v>
       </c>
       <c r="P392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q392" t="n">
         <v>1</v>
       </c>
       <c r="R392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S392" t="n">
         <v>0</v>
@@ -30871,10 +31331,10 @@
         <v>0</v>
       </c>
       <c r="V392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X392" t="n">
         <v>0</v>
@@ -30933,7 +31393,7 @@
         <v>1</v>
       </c>
       <c r="R393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S393" t="n">
         <v>0</v>
@@ -31019,7 +31479,7 @@
         <v>0</v>
       </c>
       <c r="V394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W394" t="n">
         <v>1</v>
@@ -31036,7 +31496,7 @@
         <v>0</v>
       </c>
       <c r="C395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D395" t="n">
         <v>0</v>
@@ -31072,7 +31532,7 @@
         <v>0</v>
       </c>
       <c r="O395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P395" t="n">
         <v>0</v>
@@ -31110,7 +31570,7 @@
         <v>0</v>
       </c>
       <c r="C396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D396" t="n">
         <v>0</v>
@@ -31146,7 +31606,7 @@
         <v>0</v>
       </c>
       <c r="O396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P396" t="n">
         <v>1</v>
@@ -31170,7 +31630,7 @@
         <v>0</v>
       </c>
       <c r="W396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X396" t="n">
         <v>0</v>
@@ -31220,16 +31680,16 @@
         <v>0</v>
       </c>
       <c r="O397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q397" t="n">
         <v>1</v>
       </c>
       <c r="R397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S397" t="n">
         <v>0</v>
@@ -31241,10 +31701,10 @@
         <v>0</v>
       </c>
       <c r="V397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X397" t="n">
         <v>0</v>
@@ -31297,7 +31757,7 @@
         <v>1</v>
       </c>
       <c r="P398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q398" t="n">
         <v>1</v>
@@ -31318,7 +31778,7 @@
         <v>0</v>
       </c>
       <c r="W398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X398" t="n">
         <v>0</v>
@@ -31392,7 +31852,7 @@
         <v>0</v>
       </c>
       <c r="W399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X399" t="n">
         <v>0</v>
@@ -31406,7 +31866,7 @@
         <v>0</v>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D400" t="n">
         <v>0</v>
@@ -31442,16 +31902,16 @@
         <v>0</v>
       </c>
       <c r="O400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q400" t="n">
         <v>1</v>
       </c>
       <c r="R400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S400" t="n">
         <v>0</v>
@@ -31466,7 +31926,7 @@
         <v>0</v>
       </c>
       <c r="W400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X400" t="n">
         <v>0</v>
@@ -31480,7 +31940,7 @@
         <v>0</v>
       </c>
       <c r="C401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D401" t="n">
         <v>0</v>
@@ -31519,7 +31979,7 @@
         <v>0</v>
       </c>
       <c r="P401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q401" t="n">
         <v>1</v>
@@ -31537,7 +31997,7 @@
         <v>0</v>
       </c>
       <c r="V401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W401" t="n">
         <v>0</v>
@@ -31590,16 +32050,16 @@
         <v>0</v>
       </c>
       <c r="O402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q402" t="n">
         <v>1</v>
       </c>
       <c r="R402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S402" t="n">
         <v>0</v>
@@ -31614,7 +32074,7 @@
         <v>0</v>
       </c>
       <c r="W402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X402" t="n">
         <v>0</v>
@@ -31738,7 +32198,7 @@
         <v>0</v>
       </c>
       <c r="O404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P404" t="n">
         <v>0</v>
@@ -31747,7 +32207,7 @@
         <v>1</v>
       </c>
       <c r="R404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S404" t="n">
         <v>0</v>
@@ -31815,7 +32275,7 @@
         <v>1</v>
       </c>
       <c r="P405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q405" t="n">
         <v>1</v>
@@ -31833,7 +32293,7 @@
         <v>0</v>
       </c>
       <c r="V405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W405" t="n">
         <v>0</v>
@@ -31850,7 +32310,7 @@
         <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D406" t="n">
         <v>0</v>
@@ -31889,7 +32349,7 @@
         <v>1</v>
       </c>
       <c r="P406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q406" t="n">
         <v>1</v>
@@ -31910,7 +32370,7 @@
         <v>0</v>
       </c>
       <c r="W406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X406" t="n">
         <v>0</v>
@@ -31963,7 +32423,7 @@
         <v>0</v>
       </c>
       <c r="P407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q407" t="n">
         <v>1</v>
@@ -31998,7 +32458,7 @@
         <v>0</v>
       </c>
       <c r="C408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D408" t="n">
         <v>0</v>
@@ -32037,13 +32497,13 @@
         <v>0</v>
       </c>
       <c r="P408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q408" t="n">
         <v>1</v>
       </c>
       <c r="R408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S408" t="n">
         <v>0</v>
@@ -32072,7 +32532,7 @@
         <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D409" t="n">
         <v>0</v>
@@ -32111,13 +32571,13 @@
         <v>1</v>
       </c>
       <c r="P409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q409" t="n">
         <v>1</v>
       </c>
       <c r="R409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S409" t="n">
         <v>0</v>
@@ -32129,7 +32589,7 @@
         <v>0</v>
       </c>
       <c r="V409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W409" t="n">
         <v>1</v>
@@ -32182,7 +32642,7 @@
         <v>0</v>
       </c>
       <c r="O410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P410" t="n">
         <v>1</v>
@@ -32203,7 +32663,7 @@
         <v>0</v>
       </c>
       <c r="V410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W410" t="n">
         <v>0</v>
@@ -32256,7 +32716,7 @@
         <v>0</v>
       </c>
       <c r="O411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P411" t="n">
         <v>0</v>
@@ -32277,7 +32737,7 @@
         <v>0</v>
       </c>
       <c r="V411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W411" t="n">
         <v>1</v>
@@ -32333,7 +32793,7 @@
         <v>0</v>
       </c>
       <c r="P412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q412" t="n">
         <v>1</v>
@@ -32354,7 +32814,7 @@
         <v>0</v>
       </c>
       <c r="W412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X412" t="n">
         <v>0</v>
@@ -32368,7 +32828,7 @@
         <v>0</v>
       </c>
       <c r="C413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D413" t="n">
         <v>0</v>
@@ -32404,7 +32864,7 @@
         <v>0</v>
       </c>
       <c r="O413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P413" t="n">
         <v>0</v>
@@ -32413,7 +32873,7 @@
         <v>1</v>
       </c>
       <c r="R413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S413" t="n">
         <v>0</v>
@@ -32425,7 +32885,7 @@
         <v>0</v>
       </c>
       <c r="V413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W413" t="n">
         <v>0</v>
@@ -32442,7 +32902,7 @@
         <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D414" t="n">
         <v>0</v>
@@ -32481,13 +32941,13 @@
         <v>0</v>
       </c>
       <c r="P414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q414" t="n">
         <v>1</v>
       </c>
       <c r="R414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S414" t="n">
         <v>0</v>
@@ -32499,7 +32959,7 @@
         <v>0</v>
       </c>
       <c r="V414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W414" t="n">
         <v>0</v>
@@ -32555,7 +33015,7 @@
         <v>1</v>
       </c>
       <c r="P415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q415" t="n">
         <v>1</v>
@@ -32573,7 +33033,7 @@
         <v>0</v>
       </c>
       <c r="V415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W415" t="n">
         <v>0</v>
@@ -32590,7 +33050,7 @@
         <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D416" t="n">
         <v>0</v>
@@ -32635,7 +33095,7 @@
         <v>1</v>
       </c>
       <c r="R416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S416" t="n">
         <v>0</v>
@@ -32647,10 +33107,10 @@
         <v>0</v>
       </c>
       <c r="V416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X416" t="n">
         <v>0</v>
@@ -32664,7 +33124,7 @@
         <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D417" t="n">
         <v>0</v>
@@ -32724,7 +33184,7 @@
         <v>0</v>
       </c>
       <c r="W417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X417" t="n">
         <v>0</v>
@@ -32774,7 +33234,7 @@
         <v>0</v>
       </c>
       <c r="O418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P418" t="n">
         <v>1</v>
@@ -32869,10 +33329,10 @@
         <v>0</v>
       </c>
       <c r="V419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X419" t="n">
         <v>0</v>
@@ -32925,13 +33385,13 @@
         <v>0</v>
       </c>
       <c r="P420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q420" t="n">
         <v>1</v>
       </c>
       <c r="R420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S420" t="n">
         <v>0</v>
@@ -32943,7 +33403,7 @@
         <v>0</v>
       </c>
       <c r="V420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W420" t="n">
         <v>0</v>
@@ -33005,7 +33465,7 @@
         <v>1</v>
       </c>
       <c r="R421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S421" t="n">
         <v>0</v>
@@ -33020,7 +33480,7 @@
         <v>0</v>
       </c>
       <c r="W421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X421" t="n">
         <v>0</v>
@@ -33073,7 +33533,7 @@
         <v>1</v>
       </c>
       <c r="P422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q422" t="n">
         <v>1</v>
@@ -33091,7 +33551,7 @@
         <v>0</v>
       </c>
       <c r="V422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W422" t="n">
         <v>0</v>
@@ -33108,7 +33568,7 @@
         <v>0</v>
       </c>
       <c r="C423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D423" t="n">
         <v>0</v>
@@ -33165,7 +33625,7 @@
         <v>0</v>
       </c>
       <c r="V423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W423" t="n">
         <v>0</v>
@@ -33182,7 +33642,7 @@
         <v>0</v>
       </c>
       <c r="C424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D424" t="n">
         <v>0</v>
@@ -33221,13 +33681,13 @@
         <v>0</v>
       </c>
       <c r="P424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q424" t="n">
         <v>1</v>
       </c>
       <c r="R424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S424" t="n">
         <v>0</v>
@@ -33242,7 +33702,7 @@
         <v>0</v>
       </c>
       <c r="W424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X424" t="n">
         <v>0</v>
@@ -33256,7 +33716,7 @@
         <v>0</v>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D425" t="n">
         <v>0</v>
@@ -33292,7 +33752,7 @@
         <v>0</v>
       </c>
       <c r="O425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P425" t="n">
         <v>0</v>
@@ -33301,7 +33761,7 @@
         <v>1</v>
       </c>
       <c r="R425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S425" t="n">
         <v>0</v>
@@ -33316,7 +33776,7 @@
         <v>0</v>
       </c>
       <c r="W425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X425" t="n">
         <v>0</v>
@@ -33366,7 +33826,7 @@
         <v>0</v>
       </c>
       <c r="O426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P426" t="n">
         <v>0</v>
@@ -33387,7 +33847,7 @@
         <v>0</v>
       </c>
       <c r="V426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W426" t="n">
         <v>0</v>
@@ -33404,7 +33864,7 @@
         <v>0</v>
       </c>
       <c r="C427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D427" t="n">
         <v>0</v>
@@ -33464,7 +33924,7 @@
         <v>0</v>
       </c>
       <c r="W427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X427" t="n">
         <v>0</v>
@@ -33514,7 +33974,7 @@
         <v>0</v>
       </c>
       <c r="O428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P428" t="n">
         <v>1</v>
@@ -33523,7 +33983,7 @@
         <v>1</v>
       </c>
       <c r="R428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S428" t="n">
         <v>0</v>
@@ -33552,7 +34012,7 @@
         <v>0</v>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D429" t="n">
         <v>0</v>
@@ -33591,13 +34051,13 @@
         <v>0</v>
       </c>
       <c r="P429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q429" t="n">
         <v>1</v>
       </c>
       <c r="R429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S429" t="n">
         <v>0</v>
@@ -33609,7 +34069,7 @@
         <v>0</v>
       </c>
       <c r="V429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W429" t="n">
         <v>0</v>
@@ -33662,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="O430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q430" t="n">
         <v>1</v>
@@ -33700,7 +34160,7 @@
         <v>0</v>
       </c>
       <c r="C431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D431" t="n">
         <v>0</v>
@@ -33745,7 +34205,7 @@
         <v>1</v>
       </c>
       <c r="R431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S431" t="n">
         <v>0</v>
@@ -39697,7 +40157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39742,31 +40202,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -39777,34 +40237,314 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Simulate_data.xlsx
+++ b/Simulate_data.xlsx
@@ -596,1265 +596,805 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>OTS</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>OTS</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>OTS</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>OTS</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>OTS</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>OTS</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>OTS</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>OTS</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>OTS</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>OTS</t>
-        </is>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ED</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ED</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ED</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ED</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>ED</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>ED</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ED</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>ED</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>ED</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>ED</t>
-        </is>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>SEP</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SEP</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SEP</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SEP</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>SEP</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>SEP</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>SEP</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>SEP</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>SEP</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>SEP</t>
-        </is>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CPS</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>CPS</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>CPS</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>CPS</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>CPS</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>CPS</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>CPS</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>CPS</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>CPS</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>CPS</t>
-        </is>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>HPH</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>HPH</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>HPH</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>HPH</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>HPH</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>HPH</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>HPH</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>HPH</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>HPH</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>HPH</t>
-        </is>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ORNS</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ORNS</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ORNS</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ORNS</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>ORNS</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>ORNS</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ORNS</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>ORNS</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>ORNS</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>ORNS</t>
-        </is>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ENS</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ENS</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ENS</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ENS</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>ENS</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>ENS</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ENS</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>ENS</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>ENS</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>ENS</t>
-        </is>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8</v>
+      </c>
+      <c r="D16" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8</v>
+      </c>
+      <c r="G16" t="n">
+        <v>8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>8</v>
+      </c>
+      <c r="K16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>HNS</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>HNS</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>HNS</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HNS</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>HNS</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>HNS</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>HNS</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>HNS</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>HNS</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>HNS</t>
-        </is>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7</v>
+      </c>
+      <c r="G17" t="n">
+        <v>7</v>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7</v>
+      </c>
+      <c r="J17" t="n">
+        <v>7</v>
+      </c>
+      <c r="K17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>OGNS</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>OGNS</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>OGNS</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>OGNS</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>OGNS</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>OGNS</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>OGNS</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>OGNS</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>OGNS</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>OGNS</t>
-        </is>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>PH</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>PH</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>PH</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>PH</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>PH</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>PH</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PH</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>PH</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>PH</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>PH</t>
-        </is>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>LT</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>LT</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>LT</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>LT</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>LT</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>LT</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>LT</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>LT</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>LT</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>LT</t>
-        </is>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>RT</t>
-        </is>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>ORNA</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>ORNA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>ORNA</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>ORNA</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>ORNA</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>ORNA</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ORNA</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>ORNA</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>ORNA</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>ORNA</t>
-        </is>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>HNSA</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>HNSA</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>HNSA</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>HNSA</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>HNSA</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>HNSA</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>HNSA</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>HNSA</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>HNSA</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>HNSA</t>
-        </is>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>PT</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>PT</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>PT</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>PT</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>PT</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>PT</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>PT</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>PT</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>PT</t>
-        </is>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2426,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2444,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -2509,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -2565,10 +2105,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2651,10 +2191,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -2734,13 +2274,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -2796,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2808,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -2873,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2882,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -2944,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -2953,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -3021,13 +2561,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3095,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -3110,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -3196,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -3267,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -3344,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -3415,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -3486,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -3495,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -3640,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -3708,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -3717,7 +3257,7 @@
         <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -3788,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -3859,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3965,7 +3505,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -4039,7 +3579,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -4187,7 +3727,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -4483,7 +4023,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -4631,7 +4171,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -4779,7 +4319,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -4853,7 +4393,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -4927,7 +4467,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -5001,7 +4541,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -5075,7 +4615,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -5149,7 +4689,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -5371,7 +4911,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -5389,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -5445,7 +4985,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -5463,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -5741,7 +5281,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -5759,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -5815,7 +5355,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -5889,7 +5429,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -5907,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -5963,7 +5503,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -6055,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -6111,7 +5651,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -6185,7 +5725,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -6203,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -6277,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -6333,7 +5873,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -6351,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -6555,7 +6095,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -6721,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -6869,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -6925,7 +6465,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -7017,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -7073,7 +6613,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -7091,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -7165,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -7221,7 +6761,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -7239,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -7369,7 +6909,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -7387,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -7517,7 +7057,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -7739,7 +7279,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -7757,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -7831,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -7887,7 +7427,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -7979,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -8109,7 +7649,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -8183,7 +7723,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -8257,7 +7797,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -8331,7 +7871,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -8423,7 +7963,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -8479,7 +8019,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -8553,7 +8093,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -8627,7 +8167,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -8701,7 +8241,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -8793,7 +8333,7 @@
         <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -8923,7 +8463,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -8997,7 +8537,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -9071,7 +8611,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -9219,7 +8759,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -9237,7 +8777,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -9293,7 +8833,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -9459,7 +8999,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -9515,7 +9055,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -9589,7 +9129,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -9607,7 +9147,7 @@
         <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -9663,7 +9203,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -9681,7 +9221,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -9885,7 +9425,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -10107,7 +9647,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -10255,7 +9795,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -10329,7 +9869,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -10403,7 +9943,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -10477,7 +10017,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -10699,7 +10239,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -10773,7 +10313,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -10995,7 +10535,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -11143,7 +10683,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -11291,7 +10831,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -11439,7 +10979,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -11513,7 +11053,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -11883,7 +11423,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -11957,7 +11497,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -12105,7 +11645,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -12179,7 +11719,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -12401,7 +11941,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -12475,7 +12015,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -12771,7 +12311,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -12789,7 +12329,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -12845,7 +12385,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -12863,7 +12403,7 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -12993,7 +12533,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -13011,7 +12551,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -13233,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -13289,7 +12829,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -13381,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -13437,7 +12977,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -13455,7 +12995,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -13585,7 +13125,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -13603,7 +13143,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -13677,7 +13217,7 @@
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -13751,7 +13291,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -13825,7 +13365,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -13899,7 +13439,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -13955,7 +13495,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -13973,7 +13513,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -14029,7 +13569,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -14121,7 +13661,7 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -14177,7 +13717,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -14269,7 +13809,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -14308,7 +13848,7 @@
         <v>0</v>
       </c>
       <c r="U162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V162" t="n">
         <v>0</v>
@@ -14382,7 +13922,7 @@
         <v>0</v>
       </c>
       <c r="U163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V163" t="n">
         <v>0</v>
@@ -14399,7 +13939,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -14417,7 +13957,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -14547,7 +14087,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -14565,7 +14105,7 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -14604,7 +14144,7 @@
         <v>0</v>
       </c>
       <c r="U166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V166" t="n">
         <v>0</v>
@@ -14621,7 +14161,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -14639,7 +14179,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -14678,7 +14218,7 @@
         <v>0</v>
       </c>
       <c r="U167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V167" t="n">
         <v>0</v>
@@ -14695,7 +14235,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -14752,7 +14292,7 @@
         <v>0</v>
       </c>
       <c r="U168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V168" t="n">
         <v>0</v>
@@ -14769,7 +14309,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -14826,7 +14366,7 @@
         <v>0</v>
       </c>
       <c r="U169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V169" t="n">
         <v>0</v>
@@ -14843,7 +14383,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -14861,7 +14401,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -14991,7 +14531,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -15065,7 +14605,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -15213,7 +14753,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -15287,7 +14827,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -15361,7 +14901,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -15435,7 +14975,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -15509,7 +15049,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -16471,7 +16011,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -16545,7 +16085,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -16619,7 +16159,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -16693,7 +16233,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -16989,7 +16529,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -17063,7 +16603,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -17277,7 +16817,7 @@
         <v>0</v>
       </c>
       <c r="X202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -17721,7 +17261,7 @@
         <v>0</v>
       </c>
       <c r="X208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -17795,7 +17335,7 @@
         <v>0</v>
       </c>
       <c r="X209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -17869,7 +17409,7 @@
         <v>0</v>
       </c>
       <c r="X210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -17993,13 +17533,13 @@
         <v>1</v>
       </c>
       <c r="P212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q212" t="n">
         <v>0</v>
       </c>
       <c r="R212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S212" t="n">
         <v>0</v>
@@ -18014,7 +17554,7 @@
         <v>0</v>
       </c>
       <c r="W212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X212" t="n">
         <v>0</v>
@@ -18028,7 +17568,7 @@
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D213" t="n">
         <v>0</v>
@@ -18067,10 +17607,10 @@
         <v>1</v>
       </c>
       <c r="P213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R213" t="n">
         <v>1</v>
@@ -18141,7 +17681,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -18162,7 +17702,7 @@
         <v>0</v>
       </c>
       <c r="W214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X214" t="n">
         <v>0</v>
@@ -18176,7 +17716,7 @@
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D215" t="n">
         <v>0</v>
@@ -18218,7 +17758,7 @@
         <v>0</v>
       </c>
       <c r="Q215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R215" t="n">
         <v>1</v>
@@ -18250,7 +17790,7 @@
         <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D216" t="n">
         <v>0</v>
@@ -18307,7 +17847,7 @@
         <v>0</v>
       </c>
       <c r="V216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W216" t="n">
         <v>0</v>
@@ -18363,13 +17903,13 @@
         <v>1</v>
       </c>
       <c r="P217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
       </c>
       <c r="R217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S217" t="n">
         <v>0</v>
@@ -18440,10 +17980,10 @@
         <v>0</v>
       </c>
       <c r="Q218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S218" t="n">
         <v>0</v>
@@ -18458,7 +17998,7 @@
         <v>0</v>
       </c>
       <c r="W218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X218" t="n">
         <v>0</v>
@@ -18472,7 +18012,7 @@
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D219" t="n">
         <v>0</v>
@@ -18546,7 +18086,7 @@
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D220" t="n">
         <v>0</v>
@@ -18588,7 +18128,7 @@
         <v>0</v>
       </c>
       <c r="Q220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R220" t="n">
         <v>0</v>
@@ -18603,7 +18143,7 @@
         <v>0</v>
       </c>
       <c r="V220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W220" t="n">
         <v>0</v>
@@ -18620,7 +18160,7 @@
         <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D221" t="n">
         <v>0</v>
@@ -18659,10 +18199,10 @@
         <v>1</v>
       </c>
       <c r="P221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R221" t="n">
         <v>1</v>
@@ -18694,7 +18234,7 @@
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D222" t="n">
         <v>0</v>
@@ -18733,10 +18273,10 @@
         <v>1</v>
       </c>
       <c r="P222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R222" t="n">
         <v>1</v>
@@ -18754,7 +18294,7 @@
         <v>0</v>
       </c>
       <c r="W222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X222" t="n">
         <v>0</v>
@@ -18768,7 +18308,7 @@
         <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D223" t="n">
         <v>0</v>
@@ -18807,13 +18347,13 @@
         <v>1</v>
       </c>
       <c r="P223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q223" t="n">
         <v>0</v>
       </c>
       <c r="R223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S223" t="n">
         <v>0</v>
@@ -18825,7 +18365,7 @@
         <v>0</v>
       </c>
       <c r="V223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W223" t="n">
         <v>0</v>
@@ -18887,7 +18427,7 @@
         <v>1</v>
       </c>
       <c r="R224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S224" t="n">
         <v>0</v>
@@ -19064,7 +18604,7 @@
         <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D227" t="n">
         <v>0</v>
@@ -19103,7 +18643,7 @@
         <v>1</v>
       </c>
       <c r="P227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -19138,7 +18678,7 @@
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D228" t="n">
         <v>0</v>
@@ -19180,10 +18720,10 @@
         <v>1</v>
       </c>
       <c r="Q228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S228" t="n">
         <v>0</v>
@@ -19195,7 +18735,7 @@
         <v>0</v>
       </c>
       <c r="V228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W228" t="n">
         <v>0</v>
@@ -19212,7 +18752,7 @@
         <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D229" t="n">
         <v>0</v>
@@ -19251,13 +18791,13 @@
         <v>1</v>
       </c>
       <c r="P229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S229" t="n">
         <v>0</v>
@@ -19272,7 +18812,7 @@
         <v>0</v>
       </c>
       <c r="W229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X229" t="n">
         <v>0</v>
@@ -19286,7 +18826,7 @@
         <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D230" t="n">
         <v>0</v>
@@ -19325,10 +18865,10 @@
         <v>1</v>
       </c>
       <c r="P230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R230" t="n">
         <v>1</v>
@@ -19343,7 +18883,7 @@
         <v>0</v>
       </c>
       <c r="V230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W230" t="n">
         <v>0</v>
@@ -19360,7 +18900,7 @@
         <v>0</v>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D231" t="n">
         <v>0</v>
@@ -19402,7 +18942,7 @@
         <v>1</v>
       </c>
       <c r="Q231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R231" t="n">
         <v>0</v>
@@ -19420,7 +18960,7 @@
         <v>0</v>
       </c>
       <c r="W231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X231" t="n">
         <v>0</v>
@@ -19434,7 +18974,7 @@
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D232" t="n">
         <v>0</v>
@@ -19473,13 +19013,13 @@
         <v>1</v>
       </c>
       <c r="P232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q232" t="n">
         <v>0</v>
       </c>
       <c r="R232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S232" t="n">
         <v>0</v>
@@ -19491,10 +19031,10 @@
         <v>0</v>
       </c>
       <c r="V232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X232" t="n">
         <v>0</v>
@@ -19508,7 +19048,7 @@
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D233" t="n">
         <v>0</v>
@@ -19550,10 +19090,10 @@
         <v>0</v>
       </c>
       <c r="Q233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S233" t="n">
         <v>0</v>
@@ -19568,7 +19108,7 @@
         <v>0</v>
       </c>
       <c r="W233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X233" t="n">
         <v>0</v>
@@ -19621,10 +19161,10 @@
         <v>1</v>
       </c>
       <c r="P234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R234" t="n">
         <v>0</v>
@@ -19695,7 +19235,7 @@
         <v>1</v>
       </c>
       <c r="P235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q235" t="n">
         <v>0</v>
@@ -19730,7 +19270,7 @@
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D236" t="n">
         <v>0</v>
@@ -19769,13 +19309,13 @@
         <v>1</v>
       </c>
       <c r="P236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q236" t="n">
         <v>0</v>
       </c>
       <c r="R236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S236" t="n">
         <v>0</v>
@@ -19787,7 +19327,7 @@
         <v>0</v>
       </c>
       <c r="V236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W236" t="n">
         <v>0</v>
@@ -19843,13 +19383,13 @@
         <v>1</v>
       </c>
       <c r="P237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S237" t="n">
         <v>0</v>
@@ -19878,7 +19418,7 @@
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D238" t="n">
         <v>0</v>
@@ -19917,7 +19457,7 @@
         <v>1</v>
       </c>
       <c r="P238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -19991,10 +19531,10 @@
         <v>1</v>
       </c>
       <c r="P239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R239" t="n">
         <v>0</v>
@@ -20065,10 +19605,10 @@
         <v>1</v>
       </c>
       <c r="P240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R240" t="n">
         <v>1</v>
@@ -20083,7 +19623,7 @@
         <v>0</v>
       </c>
       <c r="V240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W240" t="n">
         <v>0</v>
@@ -20139,10 +19679,10 @@
         <v>1</v>
       </c>
       <c r="P241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R241" t="n">
         <v>1</v>
@@ -20216,7 +19756,7 @@
         <v>0</v>
       </c>
       <c r="Q242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R242" t="n">
         <v>0</v>
@@ -20234,7 +19774,7 @@
         <v>0</v>
       </c>
       <c r="W242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X242" t="n">
         <v>0</v>
@@ -20287,7 +19827,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -20322,7 +19862,7 @@
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D244" t="n">
         <v>0</v>
@@ -20361,10 +19901,10 @@
         <v>1</v>
       </c>
       <c r="P244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R244" t="n">
         <v>1</v>
@@ -20379,7 +19919,7 @@
         <v>0</v>
       </c>
       <c r="V244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W244" t="n">
         <v>0</v>
@@ -20438,7 +19978,7 @@
         <v>1</v>
       </c>
       <c r="Q245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R245" t="n">
         <v>0</v>
@@ -20453,7 +19993,7 @@
         <v>0</v>
       </c>
       <c r="V245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W245" t="n">
         <v>0</v>
@@ -20515,7 +20055,7 @@
         <v>0</v>
       </c>
       <c r="R246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S246" t="n">
         <v>0</v>
@@ -20544,7 +20084,7 @@
         <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D247" t="n">
         <v>0</v>
@@ -20583,10 +20123,10 @@
         <v>1</v>
       </c>
       <c r="P247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R247" t="n">
         <v>1</v>
@@ -20604,7 +20144,7 @@
         <v>0</v>
       </c>
       <c r="W247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X247" t="n">
         <v>0</v>
@@ -20618,7 +20158,7 @@
         <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D248" t="n">
         <v>0</v>
@@ -20657,13 +20197,13 @@
         <v>1</v>
       </c>
       <c r="P248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
       </c>
       <c r="R248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S248" t="n">
         <v>0</v>
@@ -20692,7 +20232,7 @@
         <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D249" t="n">
         <v>0</v>
@@ -20752,7 +20292,7 @@
         <v>0</v>
       </c>
       <c r="W249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X249" t="n">
         <v>0</v>
@@ -20805,13 +20345,13 @@
         <v>1</v>
       </c>
       <c r="P250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S250" t="n">
         <v>0</v>
@@ -20826,7 +20366,7 @@
         <v>1</v>
       </c>
       <c r="W250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X250" t="n">
         <v>0</v>
@@ -20840,7 +20380,7 @@
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D251" t="n">
         <v>0</v>
@@ -20897,7 +20437,7 @@
         <v>0</v>
       </c>
       <c r="V251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W251" t="n">
         <v>0</v>
@@ -20953,13 +20493,13 @@
         <v>1</v>
       </c>
       <c r="P252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S252" t="n">
         <v>0</v>
@@ -20974,7 +20514,7 @@
         <v>0</v>
       </c>
       <c r="W252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X252" t="n">
         <v>0</v>
@@ -21030,10 +20570,10 @@
         <v>1</v>
       </c>
       <c r="Q253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S253" t="n">
         <v>0</v>
@@ -21048,7 +20588,7 @@
         <v>0</v>
       </c>
       <c r="W253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X253" t="n">
         <v>0</v>
@@ -21062,7 +20602,7 @@
         <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D254" t="n">
         <v>0</v>
@@ -21101,7 +20641,7 @@
         <v>1</v>
       </c>
       <c r="P254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q254" t="n">
         <v>0</v>
@@ -21122,7 +20662,7 @@
         <v>0</v>
       </c>
       <c r="W254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X254" t="n">
         <v>0</v>
@@ -21178,10 +20718,10 @@
         <v>0</v>
       </c>
       <c r="Q255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S255" t="n">
         <v>0</v>
@@ -21193,7 +20733,7 @@
         <v>0</v>
       </c>
       <c r="V255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W255" t="n">
         <v>1</v>
@@ -21210,7 +20750,7 @@
         <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D256" t="n">
         <v>0</v>
@@ -21249,10 +20789,10 @@
         <v>1</v>
       </c>
       <c r="P256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R256" t="n">
         <v>0</v>
@@ -21270,7 +20810,7 @@
         <v>0</v>
       </c>
       <c r="W256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X256" t="n">
         <v>0</v>
@@ -21284,7 +20824,7 @@
         <v>0</v>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D257" t="n">
         <v>0</v>
@@ -21341,7 +20881,7 @@
         <v>0</v>
       </c>
       <c r="V257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W257" t="n">
         <v>0</v>
@@ -21400,10 +20940,10 @@
         <v>0</v>
       </c>
       <c r="Q258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S258" t="n">
         <v>0</v>
@@ -21418,7 +20958,7 @@
         <v>0</v>
       </c>
       <c r="W258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X258" t="n">
         <v>0</v>
@@ -21432,7 +20972,7 @@
         <v>0</v>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D259" t="n">
         <v>0</v>
@@ -21471,10 +21011,10 @@
         <v>1</v>
       </c>
       <c r="P259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R259" t="n">
         <v>1</v>
@@ -21506,7 +21046,7 @@
         <v>0</v>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D260" t="n">
         <v>0</v>
@@ -21545,13 +21085,13 @@
         <v>1</v>
       </c>
       <c r="P260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
       </c>
       <c r="R260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S260" t="n">
         <v>0</v>
@@ -21563,10 +21103,10 @@
         <v>0</v>
       </c>
       <c r="V260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X260" t="n">
         <v>0</v>
@@ -21622,7 +21162,7 @@
         <v>1</v>
       </c>
       <c r="Q261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R261" t="n">
         <v>1</v>
@@ -21637,7 +21177,7 @@
         <v>0</v>
       </c>
       <c r="V261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W261" t="n">
         <v>0</v>
@@ -21654,7 +21194,7 @@
         <v>0</v>
       </c>
       <c r="C262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D262" t="n">
         <v>0</v>
@@ -21699,7 +21239,7 @@
         <v>0</v>
       </c>
       <c r="R262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S262" t="n">
         <v>0</v>
@@ -21711,7 +21251,7 @@
         <v>0</v>
       </c>
       <c r="V262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W262" t="n">
         <v>1</v>
@@ -21728,7 +21268,7 @@
         <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D263" t="n">
         <v>0</v>
@@ -21764,16 +21304,16 @@
         <v>0</v>
       </c>
       <c r="O263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P263" t="n">
         <v>1</v>
       </c>
       <c r="Q263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S263" t="n">
         <v>0</v>
@@ -21788,7 +21328,7 @@
         <v>0</v>
       </c>
       <c r="W263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X263" t="n">
         <v>0</v>
@@ -21838,16 +21378,16 @@
         <v>0</v>
       </c>
       <c r="O264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P264" t="n">
         <v>1</v>
       </c>
       <c r="Q264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S264" t="n">
         <v>0</v>
@@ -21859,10 +21399,10 @@
         <v>0</v>
       </c>
       <c r="V264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X264" t="n">
         <v>0</v>
@@ -21876,7 +21416,7 @@
         <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D265" t="n">
         <v>0</v>
@@ -21933,7 +21473,7 @@
         <v>0</v>
       </c>
       <c r="V265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W265" t="n">
         <v>0</v>
@@ -21986,13 +21526,13 @@
         <v>0</v>
       </c>
       <c r="O266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P266" t="n">
         <v>1</v>
       </c>
       <c r="Q266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R266" t="n">
         <v>0</v>
@@ -22024,7 +21564,7 @@
         <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D267" t="n">
         <v>0</v>
@@ -22060,13 +21600,13 @@
         <v>0</v>
       </c>
       <c r="O267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P267" t="n">
         <v>1</v>
       </c>
       <c r="Q267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R267" t="n">
         <v>0</v>
@@ -22081,10 +21621,10 @@
         <v>0</v>
       </c>
       <c r="V267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X267" t="n">
         <v>0</v>
@@ -22098,7 +21638,7 @@
         <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D268" t="n">
         <v>0</v>
@@ -22134,16 +21674,16 @@
         <v>0</v>
       </c>
       <c r="O268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P268" t="n">
         <v>1</v>
       </c>
       <c r="Q268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S268" t="n">
         <v>0</v>
@@ -22214,7 +21754,7 @@
         <v>1</v>
       </c>
       <c r="Q269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R269" t="n">
         <v>1</v>
@@ -22229,7 +21769,7 @@
         <v>0</v>
       </c>
       <c r="V269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W269" t="n">
         <v>0</v>
@@ -22246,7 +21786,7 @@
         <v>0</v>
       </c>
       <c r="C270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D270" t="n">
         <v>0</v>
@@ -22291,7 +21831,7 @@
         <v>0</v>
       </c>
       <c r="R270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S270" t="n">
         <v>0</v>
@@ -22320,7 +21860,7 @@
         <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D271" t="n">
         <v>0</v>
@@ -22362,10 +21902,10 @@
         <v>1</v>
       </c>
       <c r="Q271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S271" t="n">
         <v>0</v>
@@ -22439,7 +21979,7 @@
         <v>0</v>
       </c>
       <c r="R272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S272" t="n">
         <v>0</v>
@@ -22504,16 +22044,16 @@
         <v>0</v>
       </c>
       <c r="O273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P273" t="n">
         <v>1</v>
       </c>
       <c r="Q273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S273" t="n">
         <v>0</v>
@@ -22542,7 +22082,7 @@
         <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D274" t="n">
         <v>0</v>
@@ -22584,7 +22124,7 @@
         <v>1</v>
       </c>
       <c r="Q274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R274" t="n">
         <v>1</v>
@@ -22616,7 +22156,7 @@
         <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D275" t="n">
         <v>0</v>
@@ -22652,7 +22192,7 @@
         <v>0</v>
       </c>
       <c r="O275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P275" t="n">
         <v>1</v>
@@ -22732,7 +22272,7 @@
         <v>1</v>
       </c>
       <c r="Q276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R276" t="n">
         <v>1</v>
@@ -22750,7 +22290,7 @@
         <v>0</v>
       </c>
       <c r="W276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X276" t="n">
         <v>0</v>
@@ -22800,7 +22340,7 @@
         <v>0</v>
       </c>
       <c r="O277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P277" t="n">
         <v>1</v>
@@ -22874,16 +22414,16 @@
         <v>0</v>
       </c>
       <c r="O278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P278" t="n">
         <v>1</v>
       </c>
       <c r="Q278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S278" t="n">
         <v>0</v>
@@ -22912,7 +22452,7 @@
         <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D279" t="n">
         <v>0</v>
@@ -22948,7 +22488,7 @@
         <v>0</v>
       </c>
       <c r="O279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P279" t="n">
         <v>1</v>
@@ -22969,7 +22509,7 @@
         <v>0</v>
       </c>
       <c r="V279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W279" t="n">
         <v>0</v>
@@ -22986,7 +22526,7 @@
         <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D280" t="n">
         <v>0</v>
@@ -23028,10 +22568,10 @@
         <v>1</v>
       </c>
       <c r="Q280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S280" t="n">
         <v>0</v>
@@ -23046,7 +22586,7 @@
         <v>1</v>
       </c>
       <c r="W280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X280" t="n">
         <v>0</v>
@@ -23060,7 +22600,7 @@
         <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D281" t="n">
         <v>0</v>
@@ -23102,7 +22642,7 @@
         <v>1</v>
       </c>
       <c r="Q281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R281" t="n">
         <v>0</v>
@@ -23117,7 +22657,7 @@
         <v>0</v>
       </c>
       <c r="V281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W281" t="n">
         <v>0</v>
@@ -23134,7 +22674,7 @@
         <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D282" t="n">
         <v>0</v>
@@ -23176,10 +22716,10 @@
         <v>1</v>
       </c>
       <c r="Q282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S282" t="n">
         <v>0</v>
@@ -23208,7 +22748,7 @@
         <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D283" t="n">
         <v>0</v>
@@ -23250,10 +22790,10 @@
         <v>1</v>
       </c>
       <c r="Q283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S283" t="n">
         <v>0</v>
@@ -23265,7 +22805,7 @@
         <v>0</v>
       </c>
       <c r="V283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W283" t="n">
         <v>0</v>
@@ -23282,7 +22822,7 @@
         <v>0</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D284" t="n">
         <v>0</v>
@@ -23318,13 +22858,13 @@
         <v>0</v>
       </c>
       <c r="O284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P284" t="n">
         <v>1</v>
       </c>
       <c r="Q284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R284" t="n">
         <v>0</v>
@@ -23339,10 +22879,10 @@
         <v>0</v>
       </c>
       <c r="V284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X284" t="n">
         <v>0</v>
@@ -23392,16 +22932,16 @@
         <v>0</v>
       </c>
       <c r="O285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P285" t="n">
         <v>1</v>
       </c>
       <c r="Q285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S285" t="n">
         <v>0</v>
@@ -23416,7 +22956,7 @@
         <v>1</v>
       </c>
       <c r="W285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X285" t="n">
         <v>0</v>
@@ -23466,7 +23006,7 @@
         <v>0</v>
       </c>
       <c r="O286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P286" t="n">
         <v>1</v>
@@ -23475,7 +23015,7 @@
         <v>0</v>
       </c>
       <c r="R286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S286" t="n">
         <v>0</v>
@@ -23549,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="R287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S287" t="n">
         <v>0</v>
@@ -23578,7 +23118,7 @@
         <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D288" t="n">
         <v>0</v>
@@ -23620,10 +23160,10 @@
         <v>1</v>
       </c>
       <c r="Q288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S288" t="n">
         <v>0</v>
@@ -23638,7 +23178,7 @@
         <v>0</v>
       </c>
       <c r="W288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X288" t="n">
         <v>0</v>
@@ -23726,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D290" t="n">
         <v>0</v>
@@ -23771,7 +23311,7 @@
         <v>1</v>
       </c>
       <c r="R290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S290" t="n">
         <v>0</v>
@@ -23783,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="V290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W290" t="n">
         <v>1</v>
@@ -23800,7 +23340,7 @@
         <v>0</v>
       </c>
       <c r="C291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D291" t="n">
         <v>0</v>
@@ -23836,7 +23376,7 @@
         <v>0</v>
       </c>
       <c r="O291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P291" t="n">
         <v>1</v>
@@ -23845,7 +23385,7 @@
         <v>1</v>
       </c>
       <c r="R291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S291" t="n">
         <v>0</v>
@@ -23857,7 +23397,7 @@
         <v>0</v>
       </c>
       <c r="V291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W291" t="n">
         <v>0</v>
@@ -23916,7 +23456,7 @@
         <v>1</v>
       </c>
       <c r="Q292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R292" t="n">
         <v>0</v>
@@ -23984,13 +23524,13 @@
         <v>0</v>
       </c>
       <c r="O293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P293" t="n">
         <v>1</v>
       </c>
       <c r="Q293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R293" t="n">
         <v>1</v>
@@ -24058,13 +23598,13 @@
         <v>0</v>
       </c>
       <c r="O294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P294" t="n">
         <v>1</v>
       </c>
       <c r="Q294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R294" t="n">
         <v>0</v>
@@ -24082,7 +23622,7 @@
         <v>0</v>
       </c>
       <c r="W294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X294" t="n">
         <v>0</v>
@@ -24096,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D295" t="n">
         <v>0</v>
@@ -24153,7 +23693,7 @@
         <v>0</v>
       </c>
       <c r="V295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W295" t="n">
         <v>0</v>
@@ -24206,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="O296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P296" t="n">
         <v>1</v>
@@ -24244,7 +23784,7 @@
         <v>0</v>
       </c>
       <c r="C297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D297" t="n">
         <v>0</v>
@@ -24280,13 +23820,13 @@
         <v>0</v>
       </c>
       <c r="O297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P297" t="n">
         <v>1</v>
       </c>
       <c r="Q297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R297" t="n">
         <v>0</v>
@@ -24301,7 +23841,7 @@
         <v>0</v>
       </c>
       <c r="V297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W297" t="n">
         <v>0</v>
@@ -24318,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D298" t="n">
         <v>0</v>
@@ -24392,7 +23932,7 @@
         <v>0</v>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D299" t="n">
         <v>0</v>
@@ -24466,7 +24006,7 @@
         <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D300" t="n">
         <v>0</v>
@@ -24523,7 +24063,7 @@
         <v>0</v>
       </c>
       <c r="V300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W300" t="n">
         <v>0</v>
@@ -24576,16 +24116,16 @@
         <v>0</v>
       </c>
       <c r="O301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P301" t="n">
         <v>1</v>
       </c>
       <c r="Q301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S301" t="n">
         <v>0</v>
@@ -24597,7 +24137,7 @@
         <v>0</v>
       </c>
       <c r="V301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W301" t="n">
         <v>0</v>
@@ -24614,7 +24154,7 @@
         <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D302" t="n">
         <v>0</v>
@@ -24650,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="O302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P302" t="n">
         <v>1</v>
@@ -24671,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="V302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W302" t="n">
         <v>0</v>
@@ -24688,7 +24228,7 @@
         <v>0</v>
       </c>
       <c r="C303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D303" t="n">
         <v>0</v>
@@ -24724,16 +24264,16 @@
         <v>0</v>
       </c>
       <c r="O303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P303" t="n">
         <v>1</v>
       </c>
       <c r="Q303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S303" t="n">
         <v>0</v>
@@ -24798,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="O304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P304" t="n">
         <v>1</v>
@@ -24807,7 +24347,7 @@
         <v>1</v>
       </c>
       <c r="R304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S304" t="n">
         <v>0</v>
@@ -24819,10 +24359,10 @@
         <v>0</v>
       </c>
       <c r="V304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X304" t="n">
         <v>0</v>
@@ -24878,7 +24418,7 @@
         <v>1</v>
       </c>
       <c r="Q305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R305" t="n">
         <v>0</v>
@@ -24893,7 +24433,7 @@
         <v>0</v>
       </c>
       <c r="V305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W305" t="n">
         <v>0</v>
@@ -24910,7 +24450,7 @@
         <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D306" t="n">
         <v>0</v>
@@ -24946,13 +24486,13 @@
         <v>0</v>
       </c>
       <c r="O306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P306" t="n">
         <v>1</v>
       </c>
       <c r="Q306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R306" t="n">
         <v>0</v>
@@ -25020,13 +24560,13 @@
         <v>0</v>
       </c>
       <c r="O307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P307" t="n">
         <v>1</v>
       </c>
       <c r="Q307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R307" t="n">
         <v>1</v>
@@ -25041,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="V307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W307" t="n">
         <v>0</v>
@@ -25094,7 +24634,7 @@
         <v>0</v>
       </c>
       <c r="O308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P308" t="n">
         <v>1</v>
@@ -25103,7 +24643,7 @@
         <v>1</v>
       </c>
       <c r="R308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S308" t="n">
         <v>0</v>
@@ -25118,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="W308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X308" t="n">
         <v>0</v>
@@ -25132,7 +24672,7 @@
         <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D309" t="n">
         <v>0</v>
@@ -25174,10 +24714,10 @@
         <v>1</v>
       </c>
       <c r="Q309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S309" t="n">
         <v>0</v>
@@ -25242,16 +24782,16 @@
         <v>0</v>
       </c>
       <c r="O310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P310" t="n">
         <v>1</v>
       </c>
       <c r="Q310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S310" t="n">
         <v>0</v>
@@ -25263,7 +24803,7 @@
         <v>0</v>
       </c>
       <c r="V310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W310" t="n">
         <v>0</v>
@@ -25280,7 +24820,7 @@
         <v>0</v>
       </c>
       <c r="C311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D311" t="n">
         <v>0</v>
@@ -25316,13 +24856,13 @@
         <v>0</v>
       </c>
       <c r="O311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P311" t="n">
         <v>1</v>
       </c>
       <c r="Q311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R311" t="n">
         <v>1</v>
@@ -25337,10 +24877,10 @@
         <v>0</v>
       </c>
       <c r="V311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X311" t="n">
         <v>0</v>
@@ -25354,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="C312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D312" t="n">
         <v>0</v>
@@ -25473,7 +25013,7 @@
         <v>1</v>
       </c>
       <c r="R313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S313" t="n">
         <v>0</v>
@@ -25485,7 +25025,7 @@
         <v>0</v>
       </c>
       <c r="V313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W313" t="n">
         <v>0</v>
@@ -25502,7 +25042,7 @@
         <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D314" t="n">
         <v>0</v>
@@ -25547,7 +25087,7 @@
         <v>1</v>
       </c>
       <c r="R314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S314" t="n">
         <v>0</v>
@@ -25618,7 +25158,7 @@
         <v>1</v>
       </c>
       <c r="Q315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R315" t="n">
         <v>0</v>
@@ -25633,7 +25173,7 @@
         <v>0</v>
       </c>
       <c r="V315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W315" t="n">
         <v>0</v>
@@ -25724,7 +25264,7 @@
         <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D317" t="n">
         <v>0</v>
@@ -25760,16 +25300,16 @@
         <v>0</v>
       </c>
       <c r="O317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P317" t="n">
         <v>1</v>
       </c>
       <c r="Q317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S317" t="n">
         <v>0</v>
@@ -25784,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="W317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X317" t="n">
         <v>0</v>
@@ -25843,7 +25383,7 @@
         <v>0</v>
       </c>
       <c r="R318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S318" t="n">
         <v>0</v>
@@ -25855,10 +25395,10 @@
         <v>0</v>
       </c>
       <c r="V318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X318" t="n">
         <v>0</v>
@@ -25914,10 +25454,10 @@
         <v>1</v>
       </c>
       <c r="Q319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S319" t="n">
         <v>0</v>
@@ -25929,7 +25469,7 @@
         <v>0</v>
       </c>
       <c r="V319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W319" t="n">
         <v>0</v>
@@ -25982,13 +25522,13 @@
         <v>0</v>
       </c>
       <c r="O320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P320" t="n">
         <v>1</v>
       </c>
       <c r="Q320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R320" t="n">
         <v>0</v>
@@ -26003,10 +25543,10 @@
         <v>0</v>
       </c>
       <c r="V320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X320" t="n">
         <v>0</v>
@@ -26056,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="O321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P321" t="n">
         <v>1</v>
@@ -26077,10 +25617,10 @@
         <v>0</v>
       </c>
       <c r="V321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X321" t="n">
         <v>0</v>
@@ -26136,10 +25676,10 @@
         <v>1</v>
       </c>
       <c r="Q322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S322" t="n">
         <v>0</v>
@@ -26168,7 +25708,7 @@
         <v>0</v>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D323" t="n">
         <v>0</v>
@@ -26204,7 +25744,7 @@
         <v>0</v>
       </c>
       <c r="O323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P323" t="n">
         <v>1</v>
@@ -26213,7 +25753,7 @@
         <v>0</v>
       </c>
       <c r="R323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S323" t="n">
         <v>0</v>
@@ -26225,7 +25765,7 @@
         <v>0</v>
       </c>
       <c r="V323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W323" t="n">
         <v>0</v>
@@ -26278,13 +25818,13 @@
         <v>0</v>
       </c>
       <c r="O324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P324" t="n">
         <v>1</v>
       </c>
       <c r="Q324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R324" t="n">
         <v>1</v>
@@ -26299,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="V324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W324" t="n">
         <v>0</v>
@@ -26358,10 +25898,10 @@
         <v>1</v>
       </c>
       <c r="Q325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S325" t="n">
         <v>0</v>
@@ -26373,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="V325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W325" t="n">
         <v>0</v>
@@ -26390,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="C326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D326" t="n">
         <v>0</v>
@@ -26426,7 +25966,7 @@
         <v>0</v>
       </c>
       <c r="O326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P326" t="n">
         <v>1</v>
@@ -26435,7 +25975,7 @@
         <v>0</v>
       </c>
       <c r="R326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S326" t="n">
         <v>0</v>
@@ -26447,10 +25987,10 @@
         <v>0</v>
       </c>
       <c r="V326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X326" t="n">
         <v>0</v>
@@ -26464,7 +26004,7 @@
         <v>0</v>
       </c>
       <c r="C327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D327" t="n">
         <v>0</v>
@@ -26500,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="O327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P327" t="n">
         <v>1</v>
@@ -26521,10 +26061,10 @@
         <v>0</v>
       </c>
       <c r="V327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X327" t="n">
         <v>0</v>
@@ -26538,7 +26078,7 @@
         <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D328" t="n">
         <v>0</v>
@@ -26574,13 +26114,13 @@
         <v>0</v>
       </c>
       <c r="O328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P328" t="n">
         <v>1</v>
       </c>
       <c r="Q328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R328" t="n">
         <v>1</v>
@@ -26612,7 +26152,7 @@
         <v>0</v>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D329" t="n">
         <v>0</v>
@@ -26669,7 +26209,7 @@
         <v>0</v>
       </c>
       <c r="V329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W329" t="n">
         <v>0</v>
@@ -26722,7 +26262,7 @@
         <v>0</v>
       </c>
       <c r="O330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P330" t="n">
         <v>1</v>
@@ -26743,10 +26283,10 @@
         <v>0</v>
       </c>
       <c r="V330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X330" t="n">
         <v>0</v>
@@ -26802,10 +26342,10 @@
         <v>1</v>
       </c>
       <c r="Q331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S331" t="n">
         <v>0</v>
@@ -26870,7 +26410,7 @@
         <v>0</v>
       </c>
       <c r="O332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P332" t="n">
         <v>1</v>
@@ -26891,7 +26431,7 @@
         <v>0</v>
       </c>
       <c r="V332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W332" t="n">
         <v>0</v>
@@ -26944,7 +26484,7 @@
         <v>0</v>
       </c>
       <c r="O333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P333" t="n">
         <v>1</v>
@@ -26953,7 +26493,7 @@
         <v>1</v>
       </c>
       <c r="R333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S333" t="n">
         <v>0</v>
@@ -26965,7 +26505,7 @@
         <v>0</v>
       </c>
       <c r="V333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W333" t="n">
         <v>0</v>
@@ -27024,7 +26564,7 @@
         <v>1</v>
       </c>
       <c r="Q334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R334" t="n">
         <v>1</v>
@@ -27039,10 +26579,10 @@
         <v>0</v>
       </c>
       <c r="V334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X334" t="n">
         <v>0</v>
@@ -27056,7 +26596,7 @@
         <v>0</v>
       </c>
       <c r="C335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D335" t="n">
         <v>0</v>
@@ -27092,16 +26632,16 @@
         <v>0</v>
       </c>
       <c r="O335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P335" t="n">
         <v>1</v>
       </c>
       <c r="Q335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S335" t="n">
         <v>0</v>
@@ -27166,13 +26706,13 @@
         <v>0</v>
       </c>
       <c r="O336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P336" t="n">
         <v>1</v>
       </c>
       <c r="Q336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R336" t="n">
         <v>0</v>
@@ -27187,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="V336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W336" t="n">
         <v>0</v>
@@ -27240,7 +26780,7 @@
         <v>0</v>
       </c>
       <c r="O337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P337" t="n">
         <v>1</v>
@@ -27261,10 +26801,10 @@
         <v>0</v>
       </c>
       <c r="V337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X337" t="n">
         <v>0</v>
@@ -27278,7 +26818,7 @@
         <v>0</v>
       </c>
       <c r="C338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D338" t="n">
         <v>0</v>
@@ -27320,7 +26860,7 @@
         <v>1</v>
       </c>
       <c r="Q338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R338" t="n">
         <v>0</v>
@@ -27338,7 +26878,7 @@
         <v>1</v>
       </c>
       <c r="W338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X338" t="n">
         <v>0</v>
@@ -27352,7 +26892,7 @@
         <v>0</v>
       </c>
       <c r="C339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D339" t="n">
         <v>0</v>
@@ -27468,7 +27008,7 @@
         <v>1</v>
       </c>
       <c r="Q340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R340" t="n">
         <v>0</v>
@@ -27500,7 +27040,7 @@
         <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D341" t="n">
         <v>0</v>
@@ -27536,7 +27076,7 @@
         <v>0</v>
       </c>
       <c r="O341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P341" t="n">
         <v>1</v>
@@ -27545,7 +27085,7 @@
         <v>0</v>
       </c>
       <c r="R341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S341" t="n">
         <v>0</v>
@@ -27560,7 +27100,7 @@
         <v>0</v>
       </c>
       <c r="W341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X341" t="n">
         <v>0</v>
@@ -27574,7 +27114,7 @@
         <v>0</v>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D342" t="n">
         <v>0</v>
@@ -27610,10 +27150,10 @@
         <v>0</v>
       </c>
       <c r="O342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -27631,10 +27171,10 @@
         <v>0</v>
       </c>
       <c r="V342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X342" t="n">
         <v>0</v>
@@ -27648,7 +27188,7 @@
         <v>0</v>
       </c>
       <c r="C343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D343" t="n">
         <v>0</v>
@@ -27693,7 +27233,7 @@
         <v>1</v>
       </c>
       <c r="R343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S343" t="n">
         <v>0</v>
@@ -27705,7 +27245,7 @@
         <v>0</v>
       </c>
       <c r="V343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W343" t="n">
         <v>1</v>
@@ -27722,7 +27262,7 @@
         <v>0</v>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D344" t="n">
         <v>0</v>
@@ -27758,10 +27298,10 @@
         <v>0</v>
       </c>
       <c r="O344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -27796,7 +27336,7 @@
         <v>0</v>
       </c>
       <c r="C345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D345" t="n">
         <v>0</v>
@@ -27835,7 +27375,7 @@
         <v>1</v>
       </c>
       <c r="P345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -27853,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="V345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X345" t="n">
         <v>0</v>
@@ -27906,16 +27446,16 @@
         <v>0</v>
       </c>
       <c r="O346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
       </c>
       <c r="R346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S346" t="n">
         <v>0</v>
@@ -27927,10 +27467,10 @@
         <v>0</v>
       </c>
       <c r="V346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X346" t="n">
         <v>0</v>
@@ -27944,7 +27484,7 @@
         <v>0</v>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D347" t="n">
         <v>0</v>
@@ -27983,13 +27523,13 @@
         <v>1</v>
       </c>
       <c r="P347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
       </c>
       <c r="R347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S347" t="n">
         <v>0</v>
@@ -28001,10 +27541,10 @@
         <v>0</v>
       </c>
       <c r="V347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X347" t="n">
         <v>0</v>
@@ -28018,7 +27558,7 @@
         <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D348" t="n">
         <v>0</v>
@@ -28054,10 +27594,10 @@
         <v>0</v>
       </c>
       <c r="O348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -28075,7 +27615,7 @@
         <v>0</v>
       </c>
       <c r="V348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W348" t="n">
         <v>0</v>
@@ -28128,10 +27668,10 @@
         <v>0</v>
       </c>
       <c r="O349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -28149,7 +27689,7 @@
         <v>0</v>
       </c>
       <c r="V349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W349" t="n">
         <v>1</v>
@@ -28166,7 +27706,7 @@
         <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D350" t="n">
         <v>0</v>
@@ -28297,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="V351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W351" t="n">
         <v>0</v>
@@ -28353,13 +27893,13 @@
         <v>1</v>
       </c>
       <c r="P352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
       </c>
       <c r="R352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S352" t="n">
         <v>0</v>
@@ -28371,10 +27911,10 @@
         <v>0</v>
       </c>
       <c r="V352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X352" t="n">
         <v>0</v>
@@ -28424,16 +27964,16 @@
         <v>0</v>
       </c>
       <c r="O353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
       </c>
       <c r="R353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S353" t="n">
         <v>0</v>
@@ -28462,7 +28002,7 @@
         <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D354" t="n">
         <v>0</v>
@@ -28498,16 +28038,16 @@
         <v>0</v>
       </c>
       <c r="O354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
       </c>
       <c r="R354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S354" t="n">
         <v>0</v>
@@ -28536,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="C355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D355" t="n">
         <v>0</v>
@@ -28572,7 +28112,7 @@
         <v>0</v>
       </c>
       <c r="O355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P355" t="n">
         <v>1</v>
@@ -28581,7 +28121,7 @@
         <v>1</v>
       </c>
       <c r="R355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S355" t="n">
         <v>0</v>
@@ -28593,7 +28133,7 @@
         <v>0</v>
       </c>
       <c r="V355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W355" t="n">
         <v>0</v>
@@ -28610,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="C356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D356" t="n">
         <v>0</v>
@@ -28646,16 +28186,16 @@
         <v>0</v>
       </c>
       <c r="O356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
       </c>
       <c r="R356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S356" t="n">
         <v>0</v>
@@ -28684,7 +28224,7 @@
         <v>0</v>
       </c>
       <c r="C357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D357" t="n">
         <v>0</v>
@@ -28720,10 +28260,10 @@
         <v>0</v>
       </c>
       <c r="O357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -28741,10 +28281,10 @@
         <v>0</v>
       </c>
       <c r="V357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X357" t="n">
         <v>0</v>
@@ -28758,7 +28298,7 @@
         <v>0</v>
       </c>
       <c r="C358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -28803,7 +28343,7 @@
         <v>1</v>
       </c>
       <c r="R358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S358" t="n">
         <v>0</v>
@@ -28832,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -28868,16 +28408,16 @@
         <v>0</v>
       </c>
       <c r="O359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
       </c>
       <c r="R359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S359" t="n">
         <v>0</v>
@@ -28906,7 +28446,7 @@
         <v>0</v>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -28951,7 +28491,7 @@
         <v>1</v>
       </c>
       <c r="R360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S360" t="n">
         <v>0</v>
@@ -28980,7 +28520,7 @@
         <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -29025,7 +28565,7 @@
         <v>1</v>
       </c>
       <c r="R361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S361" t="n">
         <v>0</v>
@@ -29037,7 +28577,7 @@
         <v>0</v>
       </c>
       <c r="V361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W361" t="n">
         <v>0</v>
@@ -29054,7 +28594,7 @@
         <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -29111,10 +28651,10 @@
         <v>0</v>
       </c>
       <c r="V362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X362" t="n">
         <v>0</v>
@@ -29173,7 +28713,7 @@
         <v>1</v>
       </c>
       <c r="R363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S363" t="n">
         <v>0</v>
@@ -29185,7 +28725,7 @@
         <v>0</v>
       </c>
       <c r="V363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W363" t="n">
         <v>0</v>
@@ -29202,7 +28742,7 @@
         <v>0</v>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -29247,7 +28787,7 @@
         <v>1</v>
       </c>
       <c r="R364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S364" t="n">
         <v>0</v>
@@ -29312,10 +28852,10 @@
         <v>0</v>
       </c>
       <c r="O365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -29333,10 +28873,10 @@
         <v>0</v>
       </c>
       <c r="V365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X365" t="n">
         <v>0</v>
@@ -29386,7 +28926,7 @@
         <v>0</v>
       </c>
       <c r="O366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P366" t="n">
         <v>0</v>
@@ -29395,7 +28935,7 @@
         <v>1</v>
       </c>
       <c r="R366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S366" t="n">
         <v>0</v>
@@ -29407,10 +28947,10 @@
         <v>0</v>
       </c>
       <c r="V366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X366" t="n">
         <v>0</v>
@@ -29424,7 +28964,7 @@
         <v>0</v>
       </c>
       <c r="C367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -29463,13 +29003,13 @@
         <v>0</v>
       </c>
       <c r="P367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
       </c>
       <c r="R367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S367" t="n">
         <v>0</v>
@@ -29481,7 +29021,7 @@
         <v>0</v>
       </c>
       <c r="V367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W367" t="n">
         <v>0</v>
@@ -29537,13 +29077,13 @@
         <v>0</v>
       </c>
       <c r="P368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
       </c>
       <c r="R368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S368" t="n">
         <v>0</v>
@@ -29608,10 +29148,10 @@
         <v>0</v>
       </c>
       <c r="O369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -29682,10 +29222,10 @@
         <v>0</v>
       </c>
       <c r="O370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -29706,7 +29246,7 @@
         <v>0</v>
       </c>
       <c r="W370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X370" t="n">
         <v>0</v>
@@ -29720,7 +29260,7 @@
         <v>0</v>
       </c>
       <c r="C371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -29756,16 +29296,16 @@
         <v>0</v>
       </c>
       <c r="O371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
       </c>
       <c r="R371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S371" t="n">
         <v>0</v>
@@ -29777,7 +29317,7 @@
         <v>0</v>
       </c>
       <c r="V371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W371" t="n">
         <v>0</v>
@@ -29833,13 +29373,13 @@
         <v>1</v>
       </c>
       <c r="P372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
       </c>
       <c r="R372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S372" t="n">
         <v>0</v>
@@ -29868,7 +29408,7 @@
         <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D373" t="n">
         <v>0</v>
@@ -29907,13 +29447,13 @@
         <v>0</v>
       </c>
       <c r="P373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
       </c>
       <c r="R373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S373" t="n">
         <v>0</v>
@@ -29942,7 +29482,7 @@
         <v>0</v>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D374" t="n">
         <v>0</v>
@@ -29978,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="O374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P374" t="n">
         <v>1</v>
@@ -29987,7 +29527,7 @@
         <v>1</v>
       </c>
       <c r="R374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S374" t="n">
         <v>0</v>
@@ -30090,7 +29630,7 @@
         <v>0</v>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D376" t="n">
         <v>0</v>
@@ -30129,7 +29669,7 @@
         <v>1</v>
       </c>
       <c r="P376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q376" t="n">
         <v>1</v>
@@ -30147,7 +29687,7 @@
         <v>0</v>
       </c>
       <c r="V376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W376" t="n">
         <v>0</v>
@@ -30203,7 +29743,7 @@
         <v>1</v>
       </c>
       <c r="P377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q377" t="n">
         <v>1</v>
@@ -30224,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="W377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X377" t="n">
         <v>0</v>
@@ -30277,13 +29817,13 @@
         <v>0</v>
       </c>
       <c r="P378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q378" t="n">
         <v>1</v>
       </c>
       <c r="R378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S378" t="n">
         <v>0</v>
@@ -30295,10 +29835,10 @@
         <v>0</v>
       </c>
       <c r="V378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X378" t="n">
         <v>0</v>
@@ -30348,10 +29888,10 @@
         <v>0</v>
       </c>
       <c r="O379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q379" t="n">
         <v>1</v>
@@ -30422,7 +29962,7 @@
         <v>0</v>
       </c>
       <c r="O380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P380" t="n">
         <v>0</v>
@@ -30431,7 +29971,7 @@
         <v>1</v>
       </c>
       <c r="R380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S380" t="n">
         <v>0</v>
@@ -30499,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="P381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q381" t="n">
         <v>1</v>
@@ -30573,7 +30113,7 @@
         <v>0</v>
       </c>
       <c r="P382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
@@ -30608,7 +30148,7 @@
         <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D383" t="n">
         <v>0</v>
@@ -30653,7 +30193,7 @@
         <v>1</v>
       </c>
       <c r="R383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S383" t="n">
         <v>0</v>
@@ -30665,7 +30205,7 @@
         <v>0</v>
       </c>
       <c r="V383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W383" t="n">
         <v>0</v>
@@ -30718,16 +30258,16 @@
         <v>0</v>
       </c>
       <c r="O384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
       </c>
       <c r="R384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S384" t="n">
         <v>0</v>
@@ -30792,10 +30332,10 @@
         <v>0</v>
       </c>
       <c r="O385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q385" t="n">
         <v>1</v>
@@ -30813,7 +30353,7 @@
         <v>0</v>
       </c>
       <c r="V385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W385" t="n">
         <v>0</v>
@@ -30866,7 +30406,7 @@
         <v>0</v>
       </c>
       <c r="O386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P386" t="n">
         <v>0</v>
@@ -30887,10 +30427,10 @@
         <v>0</v>
       </c>
       <c r="V386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X386" t="n">
         <v>0</v>
@@ -30940,7 +30480,7 @@
         <v>0</v>
       </c>
       <c r="O387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P387" t="n">
         <v>0</v>
@@ -30949,7 +30489,7 @@
         <v>1</v>
       </c>
       <c r="R387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S387" t="n">
         <v>0</v>
@@ -30961,10 +30501,10 @@
         <v>0</v>
       </c>
       <c r="V387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X387" t="n">
         <v>0</v>
@@ -30978,7 +30518,7 @@
         <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D388" t="n">
         <v>0</v>
@@ -31014,16 +30554,16 @@
         <v>0</v>
       </c>
       <c r="O388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q388" t="n">
         <v>1</v>
       </c>
       <c r="R388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S388" t="n">
         <v>0</v>
@@ -31038,7 +30578,7 @@
         <v>0</v>
       </c>
       <c r="W388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X388" t="n">
         <v>0</v>
@@ -31052,7 +30592,7 @@
         <v>0</v>
       </c>
       <c r="C389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D389" t="n">
         <v>0</v>
@@ -31097,7 +30637,7 @@
         <v>1</v>
       </c>
       <c r="R389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S389" t="n">
         <v>0</v>
@@ -31162,10 +30702,10 @@
         <v>0</v>
       </c>
       <c r="O390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q390" t="n">
         <v>1</v>
@@ -31186,7 +30726,7 @@
         <v>0</v>
       </c>
       <c r="W390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X390" t="n">
         <v>0</v>
@@ -31200,7 +30740,7 @@
         <v>0</v>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D391" t="n">
         <v>0</v>
@@ -31245,7 +30785,7 @@
         <v>1</v>
       </c>
       <c r="R391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S391" t="n">
         <v>0</v>
@@ -31274,7 +30814,7 @@
         <v>0</v>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D392" t="n">
         <v>0</v>
@@ -31310,7 +30850,7 @@
         <v>0</v>
       </c>
       <c r="O392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P392" t="n">
         <v>1</v>
@@ -31331,7 +30871,7 @@
         <v>0</v>
       </c>
       <c r="V392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W392" t="n">
         <v>1</v>
@@ -31348,7 +30888,7 @@
         <v>0</v>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D393" t="n">
         <v>0</v>
@@ -31387,13 +30927,13 @@
         <v>1</v>
       </c>
       <c r="P393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q393" t="n">
         <v>1</v>
       </c>
       <c r="R393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S393" t="n">
         <v>0</v>
@@ -31408,7 +30948,7 @@
         <v>0</v>
       </c>
       <c r="W393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X393" t="n">
         <v>0</v>
@@ -31461,13 +31001,13 @@
         <v>0</v>
       </c>
       <c r="P394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q394" t="n">
         <v>1</v>
       </c>
       <c r="R394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S394" t="n">
         <v>0</v>
@@ -31482,7 +31022,7 @@
         <v>1</v>
       </c>
       <c r="W394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X394" t="n">
         <v>0</v>
@@ -31532,10 +31072,10 @@
         <v>0</v>
       </c>
       <c r="O395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q395" t="n">
         <v>1</v>
@@ -31606,7 +31146,7 @@
         <v>0</v>
       </c>
       <c r="O396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P396" t="n">
         <v>1</v>
@@ -31615,7 +31155,7 @@
         <v>1</v>
       </c>
       <c r="R396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S396" t="n">
         <v>0</v>
@@ -31683,7 +31223,7 @@
         <v>1</v>
       </c>
       <c r="P397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q397" t="n">
         <v>1</v>
@@ -31701,10 +31241,10 @@
         <v>0</v>
       </c>
       <c r="V397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X397" t="n">
         <v>0</v>
@@ -31754,10 +31294,10 @@
         <v>0</v>
       </c>
       <c r="O398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q398" t="n">
         <v>1</v>
@@ -31778,7 +31318,7 @@
         <v>0</v>
       </c>
       <c r="W398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X398" t="n">
         <v>0</v>
@@ -31792,7 +31332,7 @@
         <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D399" t="n">
         <v>0</v>
@@ -31849,7 +31389,7 @@
         <v>0</v>
       </c>
       <c r="V399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W399" t="n">
         <v>0</v>
@@ -31866,7 +31406,7 @@
         <v>0</v>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D400" t="n">
         <v>0</v>
@@ -31911,7 +31451,7 @@
         <v>1</v>
       </c>
       <c r="R400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S400" t="n">
         <v>0</v>
@@ -31985,7 +31525,7 @@
         <v>1</v>
       </c>
       <c r="R401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S401" t="n">
         <v>0</v>
@@ -32000,7 +31540,7 @@
         <v>0</v>
       </c>
       <c r="W401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X401" t="n">
         <v>0</v>
@@ -32050,16 +31590,16 @@
         <v>0</v>
       </c>
       <c r="O402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q402" t="n">
         <v>1</v>
       </c>
       <c r="R402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S402" t="n">
         <v>0</v>
@@ -32071,10 +31611,10 @@
         <v>0</v>
       </c>
       <c r="V402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X402" t="n">
         <v>0</v>
@@ -32162,7 +31702,7 @@
         <v>0</v>
       </c>
       <c r="C404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D404" t="n">
         <v>0</v>
@@ -32236,7 +31776,7 @@
         <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D405" t="n">
         <v>0</v>
@@ -32272,16 +31812,16 @@
         <v>0</v>
       </c>
       <c r="O405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q405" t="n">
         <v>1</v>
       </c>
       <c r="R405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S405" t="n">
         <v>0</v>
@@ -32310,7 +31850,7 @@
         <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D406" t="n">
         <v>0</v>
@@ -32349,13 +31889,13 @@
         <v>1</v>
       </c>
       <c r="P406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q406" t="n">
         <v>1</v>
       </c>
       <c r="R406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S406" t="n">
         <v>0</v>
@@ -32423,13 +31963,13 @@
         <v>0</v>
       </c>
       <c r="P407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q407" t="n">
         <v>1</v>
       </c>
       <c r="R407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S407" t="n">
         <v>0</v>
@@ -32441,7 +31981,7 @@
         <v>0</v>
       </c>
       <c r="V407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W407" t="n">
         <v>0</v>
@@ -32458,7 +31998,7 @@
         <v>0</v>
       </c>
       <c r="C408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D408" t="n">
         <v>0</v>
@@ -32497,7 +32037,7 @@
         <v>0</v>
       </c>
       <c r="P408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q408" t="n">
         <v>1</v>
@@ -32515,10 +32055,10 @@
         <v>0</v>
       </c>
       <c r="V408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X408" t="n">
         <v>0</v>
@@ -32532,7 +32072,7 @@
         <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D409" t="n">
         <v>0</v>
@@ -32568,7 +32108,7 @@
         <v>0</v>
       </c>
       <c r="O409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P409" t="n">
         <v>0</v>
@@ -32577,7 +32117,7 @@
         <v>1</v>
       </c>
       <c r="R409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S409" t="n">
         <v>0</v>
@@ -32589,10 +32129,10 @@
         <v>0</v>
       </c>
       <c r="V409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X409" t="n">
         <v>0</v>
@@ -32606,7 +32146,7 @@
         <v>0</v>
       </c>
       <c r="C410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D410" t="n">
         <v>0</v>
@@ -32642,10 +32182,10 @@
         <v>0</v>
       </c>
       <c r="O410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q410" t="n">
         <v>1</v>
@@ -32663,7 +32203,7 @@
         <v>0</v>
       </c>
       <c r="V410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W410" t="n">
         <v>0</v>
@@ -32680,7 +32220,7 @@
         <v>0</v>
       </c>
       <c r="C411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D411" t="n">
         <v>0</v>
@@ -32737,10 +32277,10 @@
         <v>0</v>
       </c>
       <c r="V411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X411" t="n">
         <v>0</v>
@@ -32754,7 +32294,7 @@
         <v>0</v>
       </c>
       <c r="C412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D412" t="n">
         <v>0</v>
@@ -32790,7 +32330,7 @@
         <v>0</v>
       </c>
       <c r="O412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P412" t="n">
         <v>1</v>
@@ -32811,7 +32351,7 @@
         <v>0</v>
       </c>
       <c r="V412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W412" t="n">
         <v>0</v>
@@ -32867,7 +32407,7 @@
         <v>0</v>
       </c>
       <c r="P413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q413" t="n">
         <v>1</v>
@@ -32885,10 +32425,10 @@
         <v>0</v>
       </c>
       <c r="V413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X413" t="n">
         <v>0</v>
@@ -32902,7 +32442,7 @@
         <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D414" t="n">
         <v>0</v>
@@ -32976,7 +32516,7 @@
         <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D415" t="n">
         <v>0</v>
@@ -33012,7 +32552,7 @@
         <v>0</v>
       </c>
       <c r="O415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P415" t="n">
         <v>0</v>
@@ -33021,7 +32561,7 @@
         <v>1</v>
       </c>
       <c r="R415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S415" t="n">
         <v>0</v>
@@ -33086,16 +32626,16 @@
         <v>0</v>
       </c>
       <c r="O416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q416" t="n">
         <v>1</v>
       </c>
       <c r="R416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S416" t="n">
         <v>0</v>
@@ -33198,7 +32738,7 @@
         <v>0</v>
       </c>
       <c r="C418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D418" t="n">
         <v>0</v>
@@ -33234,7 +32774,7 @@
         <v>0</v>
       </c>
       <c r="O418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P418" t="n">
         <v>1</v>
@@ -33243,7 +32783,7 @@
         <v>1</v>
       </c>
       <c r="R418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S418" t="n">
         <v>0</v>
@@ -33272,7 +32812,7 @@
         <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D419" t="n">
         <v>0</v>
@@ -33308,10 +32848,10 @@
         <v>0</v>
       </c>
       <c r="O419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q419" t="n">
         <v>1</v>
@@ -33346,7 +32886,7 @@
         <v>0</v>
       </c>
       <c r="C420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D420" t="n">
         <v>0</v>
@@ -33391,7 +32931,7 @@
         <v>1</v>
       </c>
       <c r="R420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S420" t="n">
         <v>0</v>
@@ -33403,7 +32943,7 @@
         <v>0</v>
       </c>
       <c r="V420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W420" t="n">
         <v>0</v>
@@ -33420,7 +32960,7 @@
         <v>0</v>
       </c>
       <c r="C421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D421" t="n">
         <v>0</v>
@@ -33456,7 +32996,7 @@
         <v>0</v>
       </c>
       <c r="O421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P421" t="n">
         <v>1</v>
@@ -33533,13 +33073,13 @@
         <v>1</v>
       </c>
       <c r="P422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q422" t="n">
         <v>1</v>
       </c>
       <c r="R422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S422" t="n">
         <v>0</v>
@@ -33554,7 +33094,7 @@
         <v>0</v>
       </c>
       <c r="W422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X422" t="n">
         <v>0</v>
@@ -33568,7 +33108,7 @@
         <v>0</v>
       </c>
       <c r="C423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D423" t="n">
         <v>0</v>
@@ -33604,7 +33144,7 @@
         <v>0</v>
       </c>
       <c r="O423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P423" t="n">
         <v>1</v>
@@ -33642,7 +33182,7 @@
         <v>0</v>
       </c>
       <c r="C424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D424" t="n">
         <v>0</v>
@@ -33678,16 +33218,16 @@
         <v>0</v>
       </c>
       <c r="O424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q424" t="n">
         <v>1</v>
       </c>
       <c r="R424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S424" t="n">
         <v>0</v>
@@ -33773,7 +33313,7 @@
         <v>0</v>
       </c>
       <c r="V425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W425" t="n">
         <v>0</v>
@@ -33790,7 +33330,7 @@
         <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D426" t="n">
         <v>0</v>
@@ -33829,13 +33369,13 @@
         <v>0</v>
       </c>
       <c r="P426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q426" t="n">
         <v>1</v>
       </c>
       <c r="R426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S426" t="n">
         <v>0</v>
@@ -33900,10 +33440,10 @@
         <v>0</v>
       </c>
       <c r="O427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q427" t="n">
         <v>1</v>
@@ -33924,7 +33464,7 @@
         <v>0</v>
       </c>
       <c r="W427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X427" t="n">
         <v>0</v>
@@ -33974,16 +33514,16 @@
         <v>0</v>
       </c>
       <c r="O428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q428" t="n">
         <v>1</v>
       </c>
       <c r="R428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S428" t="n">
         <v>0</v>
@@ -33995,7 +33535,7 @@
         <v>0</v>
       </c>
       <c r="V428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W428" t="n">
         <v>1</v>
@@ -34069,7 +33609,7 @@
         <v>0</v>
       </c>
       <c r="V429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W429" t="n">
         <v>0</v>
@@ -34086,7 +33626,7 @@
         <v>0</v>
       </c>
       <c r="C430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D430" t="n">
         <v>0</v>
@@ -34122,7 +33662,7 @@
         <v>0</v>
       </c>
       <c r="O430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P430" t="n">
         <v>1</v>
@@ -34160,7 +33700,7 @@
         <v>0</v>
       </c>
       <c r="C431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D431" t="n">
         <v>0</v>
@@ -34205,7 +33745,7 @@
         <v>1</v>
       </c>
       <c r="R431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S431" t="n">
         <v>0</v>
@@ -34220,7 +33760,7 @@
         <v>0</v>
       </c>
       <c r="W431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X431" t="n">
         <v>0</v>
@@ -40205,7 +39745,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -40214,22 +39754,22 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -40240,16 +39780,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
@@ -40272,16 +39812,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -40299,7 +39839,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -40307,7 +39847,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -40322,13 +39862,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -40342,7 +39882,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -40351,16 +39891,16 @@
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
@@ -40383,25 +39923,25 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
         <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
@@ -40418,28 +39958,28 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -40447,25 +39987,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
@@ -40482,13 +40022,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -40506,10 +40046,10 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -40517,10 +40057,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -40538,13 +40078,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
